--- a/sf2_template.xlsx
+++ b/sf2_template.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lacap\Dropbox\EMLStat Files\DepEd Working Directory\SF2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E7E8D-43CF-4E5D-B0D8-C461F8DDFFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="3hRXzjj1NwSbSld8FeuBRmTjQ1yXaOJwbVXE9IUuT7rOEoVXe1WFiy02Iryu78NmY9z1XefYcZeTML9O/5twKA==" workbookSaltValue="5oLRal3uBH+2lCe5+sYJZg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F3E25B-97DA-4684-9EAC-58CF43BFB081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="/Jo+y1/9yqxbz61oBRX+F2jghf7RycwHMIZvDjTskkteqSYx67kBbxc5wGO4wUTHueQIIJuzAeel/nW8iCiMKA==" workbookSaltValue="LSqhz9tBtxR7UnrkYlKuCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AD6CEEC-0A33-4670-A44B-34CC4623D72B}"/>
   </bookViews>
@@ -1821,382 +1821,382 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D39947C-9958-4D2D-B149-FF0CF857CE7A}">
   <dimension ref="A1:AN126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:R8"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A90" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AM105" sqref="AM105:AM106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2804,90 +2804,90 @@
       <c r="AM1" s="29"/>
     </row>
     <row r="2" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="137"/>
+      <c r="A2" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="248"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="248"/>
+      <c r="Y2" s="248"/>
+      <c r="Z2" s="248"/>
+      <c r="AA2" s="248"/>
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="248"/>
+      <c r="AD2" s="248"/>
+      <c r="AE2" s="248"/>
+      <c r="AF2" s="248"/>
+      <c r="AG2" s="248"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="248"/>
+      <c r="AJ2" s="248"/>
+      <c r="AK2" s="248"/>
+      <c r="AL2" s="248"/>
+      <c r="AM2" s="248"/>
     </row>
     <row r="3" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="138"/>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="138"/>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="138"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="249"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="249"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="249"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="249"/>
+      <c r="AD3" s="249"/>
+      <c r="AE3" s="249"/>
+      <c r="AF3" s="249"/>
+      <c r="AG3" s="249"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="249"/>
+      <c r="AJ3" s="249"/>
+      <c r="AK3" s="249"/>
+      <c r="AL3" s="249"/>
+      <c r="AM3" s="249"/>
     </row>
     <row r="4" spans="1:40" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
@@ -2980,40 +2980,40 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="133">
+      <c r="G6" s="244">
         <v>109532</v>
       </c>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="246"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="244" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="135"/>
+      <c r="O6" s="245"/>
+      <c r="P6" s="245"/>
+      <c r="Q6" s="245"/>
+      <c r="R6" s="246"/>
       <c r="S6" s="34"/>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="136"/>
-      <c r="V6" s="136"/>
-      <c r="W6" s="136"/>
-      <c r="X6" s="136"/>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="136"/>
-      <c r="AA6" s="139"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="135"/>
+      <c r="U6" s="247"/>
+      <c r="V6" s="247"/>
+      <c r="W6" s="247"/>
+      <c r="X6" s="247"/>
+      <c r="Y6" s="247"/>
+      <c r="Z6" s="247"/>
+      <c r="AA6" s="250"/>
+      <c r="AB6" s="245"/>
+      <c r="AC6" s="245"/>
+      <c r="AD6" s="245"/>
+      <c r="AE6" s="245"/>
+      <c r="AF6" s="246"/>
       <c r="AG6" s="34"/>
       <c r="AH6" s="34"/>
       <c r="AI6" s="34"/>
@@ -3072,101 +3072,101 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="135"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="245"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="245"/>
+      <c r="N8" s="245"/>
+      <c r="O8" s="245"/>
+      <c r="P8" s="245"/>
+      <c r="Q8" s="245"/>
+      <c r="R8" s="246"/>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
-      <c r="W8" s="136" t="s">
+      <c r="W8" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136"/>
-      <c r="AA8" s="133" t="s">
+      <c r="X8" s="247"/>
+      <c r="Y8" s="247"/>
+      <c r="Z8" s="247"/>
+      <c r="AA8" s="244" t="s">
         <v>89</v>
       </c>
-      <c r="AB8" s="135"/>
-      <c r="AC8" s="136" t="s">
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="136"/>
-      <c r="AF8" s="133"/>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="134"/>
-      <c r="AJ8" s="134"/>
-      <c r="AK8" s="135"/>
+      <c r="AD8" s="247"/>
+      <c r="AE8" s="247"/>
+      <c r="AF8" s="244"/>
+      <c r="AG8" s="245"/>
+      <c r="AH8" s="245"/>
+      <c r="AI8" s="245"/>
+      <c r="AJ8" s="245"/>
+      <c r="AK8" s="246"/>
       <c r="AL8" s="36"/>
       <c r="AM8" s="36"/>
     </row>
     <row r="9" spans="1:40" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:40" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="227" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="148"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="153" t="s">
+      <c r="G10" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="156" t="s">
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="234"/>
+      <c r="Q10" s="234"/>
+      <c r="R10" s="234"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="234"/>
+      <c r="U10" s="234"/>
+      <c r="V10" s="234"/>
+      <c r="W10" s="234"/>
+      <c r="X10" s="234"/>
+      <c r="Y10" s="234"/>
+      <c r="Z10" s="234"/>
+      <c r="AA10" s="234"/>
+      <c r="AB10" s="234"/>
+      <c r="AC10" s="234"/>
+      <c r="AD10" s="234"/>
+      <c r="AE10" s="235"/>
+      <c r="AF10" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="158" t="s">
+      <c r="AG10" s="236"/>
+      <c r="AH10" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="AI10" s="159"/>
-      <c r="AJ10" s="159"/>
-      <c r="AK10" s="159"/>
-      <c r="AL10" s="159"/>
-      <c r="AM10" s="160"/>
+      <c r="AI10" s="239"/>
+      <c r="AJ10" s="239"/>
+      <c r="AK10" s="239"/>
+      <c r="AL10" s="239"/>
+      <c r="AM10" s="240"/>
     </row>
     <row r="11" spans="1:40" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
+      <c r="A11" s="229"/>
+      <c r="B11" s="230"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -3196,18 +3196,18 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="157"/>
-      <c r="AG11" s="157"/>
-      <c r="AH11" s="161"/>
-      <c r="AI11" s="162"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="162"/>
-      <c r="AL11" s="162"/>
-      <c r="AM11" s="163"/>
+      <c r="AF11" s="237"/>
+      <c r="AG11" s="237"/>
+      <c r="AH11" s="241"/>
+      <c r="AI11" s="242"/>
+      <c r="AJ11" s="242"/>
+      <c r="AK11" s="242"/>
+      <c r="AL11" s="242"/>
+      <c r="AM11" s="243"/>
     </row>
     <row r="12" spans="1:40" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="151"/>
-      <c r="B12" s="152"/>
+      <c r="A12" s="231"/>
+      <c r="B12" s="232"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
@@ -3293,12 +3293,12 @@
       <c r="AG12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="AH12" s="161"/>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="162"/>
-      <c r="AL12" s="162"/>
-      <c r="AM12" s="163"/>
+      <c r="AH12" s="241"/>
+      <c r="AI12" s="242"/>
+      <c r="AJ12" s="242"/>
+      <c r="AK12" s="242"/>
+      <c r="AL12" s="242"/>
+      <c r="AM12" s="243"/>
     </row>
     <row r="13" spans="1:40" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46">
@@ -3342,8 +3342,8 @@
         <f>IF(AF13="","",25-COUNTBLANK($G$11:$AE$11)-AF13)</f>
         <v/>
       </c>
-      <c r="AH13" s="140"/>
-      <c r="AI13" s="141"/>
+      <c r="AH13" s="225"/>
+      <c r="AI13" s="220"/>
       <c r="AJ13" s="98"/>
       <c r="AK13" s="99"/>
       <c r="AL13" s="99"/>
@@ -3403,12 +3403,12 @@
         <f t="shared" ref="AG14:AG54" si="1">IF(AF14="","",25-COUNTBLANK($G$11:$AE$11)-AF14)</f>
         <v/>
       </c>
-      <c r="AH14" s="144"/>
-      <c r="AI14" s="145"/>
-      <c r="AJ14" s="142"/>
-      <c r="AK14" s="142"/>
-      <c r="AL14" s="142"/>
-      <c r="AM14" s="143"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="134"/>
+      <c r="AJ14" s="137"/>
+      <c r="AK14" s="137"/>
+      <c r="AL14" s="137"/>
+      <c r="AM14" s="226"/>
       <c r="AN14" s="30" cm="1">
         <f t="array" ref="AN14">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -3464,12 +3464,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH15" s="144"/>
-      <c r="AI15" s="145"/>
-      <c r="AJ15" s="145"/>
-      <c r="AK15" s="145"/>
-      <c r="AL15" s="145"/>
-      <c r="AM15" s="146"/>
+      <c r="AH15" s="133"/>
+      <c r="AI15" s="134"/>
+      <c r="AJ15" s="134"/>
+      <c r="AK15" s="134"/>
+      <c r="AL15" s="134"/>
+      <c r="AM15" s="135"/>
       <c r="AN15" s="30" cm="1">
         <f t="array" ref="AN15">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -3525,12 +3525,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH16" s="144"/>
-      <c r="AI16" s="145"/>
-      <c r="AJ16" s="145"/>
-      <c r="AK16" s="145"/>
-      <c r="AL16" s="145"/>
-      <c r="AM16" s="146"/>
+      <c r="AH16" s="133"/>
+      <c r="AI16" s="134"/>
+      <c r="AJ16" s="134"/>
+      <c r="AK16" s="134"/>
+      <c r="AL16" s="134"/>
+      <c r="AM16" s="135"/>
       <c r="AN16" s="30" cm="1">
         <f t="array" ref="AN16">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -3586,12 +3586,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH17" s="144"/>
-      <c r="AI17" s="145"/>
-      <c r="AJ17" s="145"/>
-      <c r="AK17" s="145"/>
-      <c r="AL17" s="145"/>
-      <c r="AM17" s="146"/>
+      <c r="AH17" s="133"/>
+      <c r="AI17" s="134"/>
+      <c r="AJ17" s="134"/>
+      <c r="AK17" s="134"/>
+      <c r="AL17" s="134"/>
+      <c r="AM17" s="135"/>
       <c r="AN17" s="30" cm="1">
         <f t="array" ref="AN17">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -3647,12 +3647,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH18" s="144"/>
-      <c r="AI18" s="145"/>
-      <c r="AJ18" s="145"/>
-      <c r="AK18" s="145"/>
-      <c r="AL18" s="145"/>
-      <c r="AM18" s="146"/>
+      <c r="AH18" s="133"/>
+      <c r="AI18" s="134"/>
+      <c r="AJ18" s="134"/>
+      <c r="AK18" s="134"/>
+      <c r="AL18" s="134"/>
+      <c r="AM18" s="135"/>
       <c r="AN18" s="30" cm="1">
         <f t="array" ref="AN18">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -3708,12 +3708,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH19" s="144"/>
-      <c r="AI19" s="145"/>
-      <c r="AJ19" s="145"/>
-      <c r="AK19" s="145"/>
-      <c r="AL19" s="145"/>
-      <c r="AM19" s="146"/>
+      <c r="AH19" s="133"/>
+      <c r="AI19" s="134"/>
+      <c r="AJ19" s="134"/>
+      <c r="AK19" s="134"/>
+      <c r="AL19" s="134"/>
+      <c r="AM19" s="135"/>
       <c r="AN19" s="30" cm="1">
         <f t="array" ref="AN19">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -3769,12 +3769,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH20" s="144"/>
-      <c r="AI20" s="145"/>
-      <c r="AJ20" s="145"/>
-      <c r="AK20" s="145"/>
-      <c r="AL20" s="145"/>
-      <c r="AM20" s="146"/>
+      <c r="AH20" s="133"/>
+      <c r="AI20" s="134"/>
+      <c r="AJ20" s="134"/>
+      <c r="AK20" s="134"/>
+      <c r="AL20" s="134"/>
+      <c r="AM20" s="135"/>
       <c r="AN20" s="30" cm="1">
         <f t="array" ref="AN20">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -3830,12 +3830,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="145"/>
-      <c r="AK21" s="145"/>
-      <c r="AL21" s="145"/>
-      <c r="AM21" s="146"/>
+      <c r="AH21" s="133"/>
+      <c r="AI21" s="134"/>
+      <c r="AJ21" s="134"/>
+      <c r="AK21" s="134"/>
+      <c r="AL21" s="134"/>
+      <c r="AM21" s="135"/>
       <c r="AN21" s="30" cm="1">
         <f t="array" ref="AN21">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -3891,12 +3891,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH22" s="144"/>
-      <c r="AI22" s="145"/>
-      <c r="AJ22" s="145"/>
-      <c r="AK22" s="145"/>
-      <c r="AL22" s="145"/>
-      <c r="AM22" s="146"/>
+      <c r="AH22" s="133"/>
+      <c r="AI22" s="134"/>
+      <c r="AJ22" s="134"/>
+      <c r="AK22" s="134"/>
+      <c r="AL22" s="134"/>
+      <c r="AM22" s="135"/>
       <c r="AN22" s="30" cm="1">
         <f t="array" ref="AN22">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -3952,12 +3952,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="145"/>
-      <c r="AJ23" s="145"/>
-      <c r="AK23" s="145"/>
-      <c r="AL23" s="145"/>
-      <c r="AM23" s="146"/>
+      <c r="AH23" s="133"/>
+      <c r="AI23" s="134"/>
+      <c r="AJ23" s="134"/>
+      <c r="AK23" s="134"/>
+      <c r="AL23" s="134"/>
+      <c r="AM23" s="135"/>
       <c r="AN23" s="30" cm="1">
         <f t="array" ref="AN23">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4013,12 +4013,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH24" s="144"/>
-      <c r="AI24" s="145"/>
-      <c r="AJ24" s="145"/>
-      <c r="AK24" s="145"/>
-      <c r="AL24" s="145"/>
-      <c r="AM24" s="146"/>
+      <c r="AH24" s="133"/>
+      <c r="AI24" s="134"/>
+      <c r="AJ24" s="134"/>
+      <c r="AK24" s="134"/>
+      <c r="AL24" s="134"/>
+      <c r="AM24" s="135"/>
       <c r="AN24" s="30" cm="1">
         <f t="array" ref="AN24">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4074,12 +4074,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH25" s="144"/>
-      <c r="AI25" s="145"/>
-      <c r="AJ25" s="145"/>
-      <c r="AK25" s="145"/>
-      <c r="AL25" s="145"/>
-      <c r="AM25" s="146"/>
+      <c r="AH25" s="133"/>
+      <c r="AI25" s="134"/>
+      <c r="AJ25" s="134"/>
+      <c r="AK25" s="134"/>
+      <c r="AL25" s="134"/>
+      <c r="AM25" s="135"/>
       <c r="AN25" s="30" cm="1">
         <f t="array" ref="AN25">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4135,12 +4135,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="145"/>
-      <c r="AK26" s="145"/>
-      <c r="AL26" s="145"/>
-      <c r="AM26" s="146"/>
+      <c r="AH26" s="133"/>
+      <c r="AI26" s="134"/>
+      <c r="AJ26" s="134"/>
+      <c r="AK26" s="134"/>
+      <c r="AL26" s="134"/>
+      <c r="AM26" s="135"/>
       <c r="AN26" s="30" cm="1">
         <f t="array" ref="AN26">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4196,12 +4196,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH27" s="144"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="145"/>
-      <c r="AL27" s="145"/>
-      <c r="AM27" s="146"/>
+      <c r="AH27" s="133"/>
+      <c r="AI27" s="134"/>
+      <c r="AJ27" s="134"/>
+      <c r="AK27" s="134"/>
+      <c r="AL27" s="134"/>
+      <c r="AM27" s="135"/>
       <c r="AN27" s="30" cm="1">
         <f t="array" ref="AN27">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4257,12 +4257,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH28" s="144"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="145"/>
-      <c r="AM28" s="146"/>
+      <c r="AH28" s="133"/>
+      <c r="AI28" s="134"/>
+      <c r="AJ28" s="134"/>
+      <c r="AK28" s="134"/>
+      <c r="AL28" s="134"/>
+      <c r="AM28" s="135"/>
       <c r="AN28" s="30" cm="1">
         <f t="array" ref="AN28">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4318,12 +4318,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH29" s="144"/>
-      <c r="AI29" s="145"/>
-      <c r="AJ29" s="145"/>
-      <c r="AK29" s="145"/>
-      <c r="AL29" s="145"/>
-      <c r="AM29" s="146"/>
+      <c r="AH29" s="133"/>
+      <c r="AI29" s="134"/>
+      <c r="AJ29" s="134"/>
+      <c r="AK29" s="134"/>
+      <c r="AL29" s="134"/>
+      <c r="AM29" s="135"/>
       <c r="AN29" s="30" cm="1">
         <f t="array" ref="AN29">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4379,12 +4379,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH30" s="144"/>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="145"/>
-      <c r="AK30" s="145"/>
-      <c r="AL30" s="145"/>
-      <c r="AM30" s="146"/>
+      <c r="AH30" s="133"/>
+      <c r="AI30" s="134"/>
+      <c r="AJ30" s="134"/>
+      <c r="AK30" s="134"/>
+      <c r="AL30" s="134"/>
+      <c r="AM30" s="135"/>
       <c r="AN30" s="30" cm="1">
         <f t="array" ref="AN30">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4440,12 +4440,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH31" s="144"/>
-      <c r="AI31" s="145"/>
-      <c r="AJ31" s="145"/>
-      <c r="AK31" s="145"/>
-      <c r="AL31" s="145"/>
-      <c r="AM31" s="146"/>
+      <c r="AH31" s="133"/>
+      <c r="AI31" s="134"/>
+      <c r="AJ31" s="134"/>
+      <c r="AK31" s="134"/>
+      <c r="AL31" s="134"/>
+      <c r="AM31" s="135"/>
       <c r="AN31" s="30" cm="1">
         <f t="array" ref="AN31">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4501,12 +4501,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH32" s="144"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="145"/>
-      <c r="AM32" s="146"/>
+      <c r="AH32" s="133"/>
+      <c r="AI32" s="134"/>
+      <c r="AJ32" s="134"/>
+      <c r="AK32" s="134"/>
+      <c r="AL32" s="134"/>
+      <c r="AM32" s="135"/>
       <c r="AN32" s="30" cm="1">
         <f t="array" ref="AN32">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4562,12 +4562,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH33" s="144"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="145"/>
-      <c r="AK33" s="145"/>
-      <c r="AL33" s="145"/>
-      <c r="AM33" s="146"/>
+      <c r="AH33" s="133"/>
+      <c r="AI33" s="134"/>
+      <c r="AJ33" s="134"/>
+      <c r="AK33" s="134"/>
+      <c r="AL33" s="134"/>
+      <c r="AM33" s="135"/>
       <c r="AN33" s="30" cm="1">
         <f t="array" ref="AN33">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4623,12 +4623,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH34" s="144"/>
-      <c r="AI34" s="145"/>
-      <c r="AJ34" s="145"/>
-      <c r="AK34" s="145"/>
-      <c r="AL34" s="145"/>
-      <c r="AM34" s="146"/>
+      <c r="AH34" s="133"/>
+      <c r="AI34" s="134"/>
+      <c r="AJ34" s="134"/>
+      <c r="AK34" s="134"/>
+      <c r="AL34" s="134"/>
+      <c r="AM34" s="135"/>
       <c r="AN34" s="30" cm="1">
         <f t="array" ref="AN34">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4684,12 +4684,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH35" s="144"/>
-      <c r="AI35" s="145"/>
-      <c r="AJ35" s="145"/>
-      <c r="AK35" s="145"/>
-      <c r="AL35" s="145"/>
-      <c r="AM35" s="146"/>
+      <c r="AH35" s="133"/>
+      <c r="AI35" s="134"/>
+      <c r="AJ35" s="134"/>
+      <c r="AK35" s="134"/>
+      <c r="AL35" s="134"/>
+      <c r="AM35" s="135"/>
       <c r="AN35" s="30" cm="1">
         <f t="array" ref="AN35">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -4745,12 +4745,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH36" s="144"/>
-      <c r="AI36" s="145"/>
-      <c r="AJ36" s="145"/>
-      <c r="AK36" s="145"/>
-      <c r="AL36" s="145"/>
-      <c r="AM36" s="146"/>
+      <c r="AH36" s="133"/>
+      <c r="AI36" s="134"/>
+      <c r="AJ36" s="134"/>
+      <c r="AK36" s="134"/>
+      <c r="AL36" s="134"/>
+      <c r="AM36" s="135"/>
       <c r="AN36" s="30" cm="1">
         <f t="array" ref="AN36">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -5538,12 +5538,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH49" s="164"/>
-      <c r="AI49" s="165"/>
-      <c r="AJ49" s="145"/>
-      <c r="AK49" s="145"/>
-      <c r="AL49" s="145"/>
-      <c r="AM49" s="146"/>
+      <c r="AH49" s="224"/>
+      <c r="AI49" s="223"/>
+      <c r="AJ49" s="134"/>
+      <c r="AK49" s="134"/>
+      <c r="AL49" s="134"/>
+      <c r="AM49" s="135"/>
       <c r="AN49" s="30" cm="1">
         <f t="array" ref="AN49">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -5599,12 +5599,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH50" s="164"/>
-      <c r="AI50" s="165"/>
-      <c r="AJ50" s="145"/>
-      <c r="AK50" s="145"/>
-      <c r="AL50" s="145"/>
-      <c r="AM50" s="146"/>
+      <c r="AH50" s="224"/>
+      <c r="AI50" s="223"/>
+      <c r="AJ50" s="134"/>
+      <c r="AK50" s="134"/>
+      <c r="AL50" s="134"/>
+      <c r="AM50" s="135"/>
       <c r="AN50" s="30" cm="1">
         <f t="array" ref="AN50">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -5660,12 +5660,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH51" s="164"/>
-      <c r="AI51" s="165"/>
-      <c r="AJ51" s="145"/>
-      <c r="AK51" s="145"/>
-      <c r="AL51" s="145"/>
-      <c r="AM51" s="146"/>
+      <c r="AH51" s="224"/>
+      <c r="AI51" s="223"/>
+      <c r="AJ51" s="134"/>
+      <c r="AK51" s="134"/>
+      <c r="AL51" s="134"/>
+      <c r="AM51" s="135"/>
       <c r="AN51" s="30" cm="1">
         <f t="array" ref="AN51">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -5721,12 +5721,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH52" s="168"/>
-      <c r="AI52" s="165"/>
-      <c r="AJ52" s="169"/>
-      <c r="AK52" s="169"/>
-      <c r="AL52" s="169"/>
-      <c r="AM52" s="170"/>
+      <c r="AH52" s="222"/>
+      <c r="AI52" s="223"/>
+      <c r="AJ52" s="217"/>
+      <c r="AK52" s="217"/>
+      <c r="AL52" s="217"/>
+      <c r="AM52" s="218"/>
       <c r="AN52" s="30" cm="1">
         <f t="array" ref="AN52">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -5916,12 +5916,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH54" s="166"/>
-      <c r="AI54" s="141"/>
-      <c r="AJ54" s="141"/>
-      <c r="AK54" s="141"/>
-      <c r="AL54" s="141"/>
-      <c r="AM54" s="167"/>
+      <c r="AH54" s="219"/>
+      <c r="AI54" s="220"/>
+      <c r="AJ54" s="220"/>
+      <c r="AK54" s="220"/>
+      <c r="AL54" s="220"/>
+      <c r="AM54" s="221"/>
       <c r="AN54" s="30" cm="1">
         <f t="array" ref="AN54">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -5977,12 +5977,12 @@
         <f>IF(AF55="","",25-COUNTBLANK($G$11:$AE$11)-AF55)</f>
         <v/>
       </c>
-      <c r="AH55" s="144"/>
-      <c r="AI55" s="145"/>
-      <c r="AJ55" s="145"/>
-      <c r="AK55" s="145"/>
-      <c r="AL55" s="145"/>
-      <c r="AM55" s="146"/>
+      <c r="AH55" s="133"/>
+      <c r="AI55" s="134"/>
+      <c r="AJ55" s="134"/>
+      <c r="AK55" s="134"/>
+      <c r="AL55" s="134"/>
+      <c r="AM55" s="135"/>
       <c r="AN55" s="30" cm="1">
         <f t="array" ref="AN55">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6038,12 +6038,12 @@
         <f t="shared" ref="AG56:AG93" si="6">IF(AF56="","",25-COUNTBLANK($G$11:$AE$11)-AF56)</f>
         <v/>
       </c>
-      <c r="AH56" s="144"/>
-      <c r="AI56" s="145"/>
-      <c r="AJ56" s="145"/>
-      <c r="AK56" s="145"/>
-      <c r="AL56" s="145"/>
-      <c r="AM56" s="146"/>
+      <c r="AH56" s="133"/>
+      <c r="AI56" s="134"/>
+      <c r="AJ56" s="134"/>
+      <c r="AK56" s="134"/>
+      <c r="AL56" s="134"/>
+      <c r="AM56" s="135"/>
       <c r="AN56" s="30" cm="1">
         <f t="array" ref="AN56">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6099,12 +6099,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH57" s="144"/>
-      <c r="AI57" s="145"/>
-      <c r="AJ57" s="145"/>
-      <c r="AK57" s="145"/>
-      <c r="AL57" s="145"/>
-      <c r="AM57" s="146"/>
+      <c r="AH57" s="133"/>
+      <c r="AI57" s="134"/>
+      <c r="AJ57" s="134"/>
+      <c r="AK57" s="134"/>
+      <c r="AL57" s="134"/>
+      <c r="AM57" s="135"/>
       <c r="AN57" s="30" cm="1">
         <f t="array" ref="AN57">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6160,12 +6160,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH58" s="144"/>
-      <c r="AI58" s="145"/>
-      <c r="AJ58" s="145"/>
-      <c r="AK58" s="145"/>
-      <c r="AL58" s="145"/>
-      <c r="AM58" s="146"/>
+      <c r="AH58" s="133"/>
+      <c r="AI58" s="134"/>
+      <c r="AJ58" s="134"/>
+      <c r="AK58" s="134"/>
+      <c r="AL58" s="134"/>
+      <c r="AM58" s="135"/>
       <c r="AN58" s="30" cm="1">
         <f t="array" ref="AN58">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6221,12 +6221,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH59" s="144"/>
-      <c r="AI59" s="145"/>
-      <c r="AJ59" s="145"/>
-      <c r="AK59" s="145"/>
-      <c r="AL59" s="145"/>
-      <c r="AM59" s="146"/>
+      <c r="AH59" s="133"/>
+      <c r="AI59" s="134"/>
+      <c r="AJ59" s="134"/>
+      <c r="AK59" s="134"/>
+      <c r="AL59" s="134"/>
+      <c r="AM59" s="135"/>
       <c r="AN59" s="30" cm="1">
         <f t="array" ref="AN59">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6282,12 +6282,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH60" s="144"/>
-      <c r="AI60" s="145"/>
-      <c r="AJ60" s="145"/>
-      <c r="AK60" s="145"/>
-      <c r="AL60" s="145"/>
-      <c r="AM60" s="146"/>
+      <c r="AH60" s="133"/>
+      <c r="AI60" s="134"/>
+      <c r="AJ60" s="134"/>
+      <c r="AK60" s="134"/>
+      <c r="AL60" s="134"/>
+      <c r="AM60" s="135"/>
       <c r="AN60" s="30" cm="1">
         <f t="array" ref="AN60">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6343,12 +6343,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH61" s="144"/>
-      <c r="AI61" s="145"/>
-      <c r="AJ61" s="145"/>
-      <c r="AK61" s="145"/>
-      <c r="AL61" s="145"/>
-      <c r="AM61" s="146"/>
+      <c r="AH61" s="133"/>
+      <c r="AI61" s="134"/>
+      <c r="AJ61" s="134"/>
+      <c r="AK61" s="134"/>
+      <c r="AL61" s="134"/>
+      <c r="AM61" s="135"/>
       <c r="AN61" s="30" cm="1">
         <f t="array" ref="AN61">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6404,12 +6404,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH62" s="144"/>
-      <c r="AI62" s="145"/>
-      <c r="AJ62" s="145"/>
-      <c r="AK62" s="145"/>
-      <c r="AL62" s="145"/>
-      <c r="AM62" s="146"/>
+      <c r="AH62" s="133"/>
+      <c r="AI62" s="134"/>
+      <c r="AJ62" s="134"/>
+      <c r="AK62" s="134"/>
+      <c r="AL62" s="134"/>
+      <c r="AM62" s="135"/>
       <c r="AN62" s="30" cm="1">
         <f t="array" ref="AN62">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6465,12 +6465,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH63" s="144"/>
-      <c r="AI63" s="145"/>
-      <c r="AJ63" s="145"/>
-      <c r="AK63" s="145"/>
-      <c r="AL63" s="145"/>
-      <c r="AM63" s="146"/>
+      <c r="AH63" s="133"/>
+      <c r="AI63" s="134"/>
+      <c r="AJ63" s="134"/>
+      <c r="AK63" s="134"/>
+      <c r="AL63" s="134"/>
+      <c r="AM63" s="135"/>
       <c r="AN63" s="30" cm="1">
         <f t="array" ref="AN63">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6526,12 +6526,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH64" s="144"/>
-      <c r="AI64" s="145"/>
-      <c r="AJ64" s="145"/>
-      <c r="AK64" s="145"/>
-      <c r="AL64" s="145"/>
-      <c r="AM64" s="146"/>
+      <c r="AH64" s="133"/>
+      <c r="AI64" s="134"/>
+      <c r="AJ64" s="134"/>
+      <c r="AK64" s="134"/>
+      <c r="AL64" s="134"/>
+      <c r="AM64" s="135"/>
       <c r="AN64" s="30" cm="1">
         <f t="array" ref="AN64">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6587,12 +6587,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH65" s="144"/>
-      <c r="AI65" s="145"/>
-      <c r="AJ65" s="145"/>
-      <c r="AK65" s="145"/>
-      <c r="AL65" s="145"/>
-      <c r="AM65" s="146"/>
+      <c r="AH65" s="133"/>
+      <c r="AI65" s="134"/>
+      <c r="AJ65" s="134"/>
+      <c r="AK65" s="134"/>
+      <c r="AL65" s="134"/>
+      <c r="AM65" s="135"/>
       <c r="AN65" s="30" cm="1">
         <f t="array" ref="AN65">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6648,12 +6648,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH66" s="144"/>
-      <c r="AI66" s="145"/>
-      <c r="AJ66" s="145"/>
-      <c r="AK66" s="145"/>
-      <c r="AL66" s="145"/>
-      <c r="AM66" s="146"/>
+      <c r="AH66" s="133"/>
+      <c r="AI66" s="134"/>
+      <c r="AJ66" s="134"/>
+      <c r="AK66" s="134"/>
+      <c r="AL66" s="134"/>
+      <c r="AM66" s="135"/>
       <c r="AN66" s="30" cm="1">
         <f t="array" ref="AN66">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6709,12 +6709,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH67" s="144"/>
-      <c r="AI67" s="145"/>
-      <c r="AJ67" s="145"/>
-      <c r="AK67" s="145"/>
-      <c r="AL67" s="145"/>
-      <c r="AM67" s="146"/>
+      <c r="AH67" s="133"/>
+      <c r="AI67" s="134"/>
+      <c r="AJ67" s="134"/>
+      <c r="AK67" s="134"/>
+      <c r="AL67" s="134"/>
+      <c r="AM67" s="135"/>
       <c r="AN67" s="30" cm="1">
         <f t="array" ref="AN67">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6770,12 +6770,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH68" s="144"/>
-      <c r="AI68" s="145"/>
-      <c r="AJ68" s="145"/>
-      <c r="AK68" s="145"/>
-      <c r="AL68" s="145"/>
-      <c r="AM68" s="146"/>
+      <c r="AH68" s="133"/>
+      <c r="AI68" s="134"/>
+      <c r="AJ68" s="134"/>
+      <c r="AK68" s="134"/>
+      <c r="AL68" s="134"/>
+      <c r="AM68" s="135"/>
       <c r="AN68" s="30" cm="1">
         <f t="array" ref="AN68">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6831,12 +6831,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH69" s="144"/>
-      <c r="AI69" s="145"/>
-      <c r="AJ69" s="145"/>
-      <c r="AK69" s="145"/>
-      <c r="AL69" s="145"/>
-      <c r="AM69" s="146"/>
+      <c r="AH69" s="133"/>
+      <c r="AI69" s="134"/>
+      <c r="AJ69" s="134"/>
+      <c r="AK69" s="134"/>
+      <c r="AL69" s="134"/>
+      <c r="AM69" s="135"/>
       <c r="AN69" s="30" cm="1">
         <f t="array" ref="AN69">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6892,12 +6892,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH70" s="144"/>
-      <c r="AI70" s="145"/>
-      <c r="AJ70" s="145"/>
-      <c r="AK70" s="145"/>
-      <c r="AL70" s="145"/>
-      <c r="AM70" s="146"/>
+      <c r="AH70" s="133"/>
+      <c r="AI70" s="134"/>
+      <c r="AJ70" s="134"/>
+      <c r="AK70" s="134"/>
+      <c r="AL70" s="134"/>
+      <c r="AM70" s="135"/>
       <c r="AN70" s="30" cm="1">
         <f t="array" ref="AN70">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -6953,12 +6953,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH71" s="144"/>
-      <c r="AI71" s="145"/>
-      <c r="AJ71" s="145"/>
-      <c r="AK71" s="145"/>
-      <c r="AL71" s="145"/>
-      <c r="AM71" s="146"/>
+      <c r="AH71" s="133"/>
+      <c r="AI71" s="134"/>
+      <c r="AJ71" s="134"/>
+      <c r="AK71" s="134"/>
+      <c r="AL71" s="134"/>
+      <c r="AM71" s="135"/>
       <c r="AN71" s="30" cm="1">
         <f t="array" ref="AN71">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7014,12 +7014,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH72" s="144"/>
-      <c r="AI72" s="145"/>
-      <c r="AJ72" s="145"/>
-      <c r="AK72" s="145"/>
-      <c r="AL72" s="145"/>
-      <c r="AM72" s="146"/>
+      <c r="AH72" s="133"/>
+      <c r="AI72" s="134"/>
+      <c r="AJ72" s="134"/>
+      <c r="AK72" s="134"/>
+      <c r="AL72" s="134"/>
+      <c r="AM72" s="135"/>
       <c r="AN72" s="30" cm="1">
         <f t="array" ref="AN72">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7075,12 +7075,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH73" s="144"/>
-      <c r="AI73" s="145"/>
-      <c r="AJ73" s="145"/>
-      <c r="AK73" s="145"/>
-      <c r="AL73" s="145"/>
-      <c r="AM73" s="146"/>
+      <c r="AH73" s="133"/>
+      <c r="AI73" s="134"/>
+      <c r="AJ73" s="134"/>
+      <c r="AK73" s="134"/>
+      <c r="AL73" s="134"/>
+      <c r="AM73" s="135"/>
       <c r="AN73" s="30" cm="1">
         <f t="array" ref="AN73">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7136,12 +7136,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH74" s="144"/>
-      <c r="AI74" s="145"/>
-      <c r="AJ74" s="145"/>
-      <c r="AK74" s="145"/>
-      <c r="AL74" s="145"/>
-      <c r="AM74" s="146"/>
+      <c r="AH74" s="133"/>
+      <c r="AI74" s="134"/>
+      <c r="AJ74" s="134"/>
+      <c r="AK74" s="134"/>
+      <c r="AL74" s="134"/>
+      <c r="AM74" s="135"/>
       <c r="AN74" s="30" cm="1">
         <f t="array" ref="AN74">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7197,12 +7197,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH75" s="144"/>
-      <c r="AI75" s="145"/>
-      <c r="AJ75" s="145"/>
-      <c r="AK75" s="145"/>
-      <c r="AL75" s="145"/>
-      <c r="AM75" s="146"/>
+      <c r="AH75" s="133"/>
+      <c r="AI75" s="134"/>
+      <c r="AJ75" s="134"/>
+      <c r="AK75" s="134"/>
+      <c r="AL75" s="134"/>
+      <c r="AM75" s="135"/>
       <c r="AN75" s="30" cm="1">
         <f t="array" ref="AN75">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7258,12 +7258,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH76" s="144"/>
-      <c r="AI76" s="145"/>
-      <c r="AJ76" s="145"/>
-      <c r="AK76" s="145"/>
-      <c r="AL76" s="145"/>
-      <c r="AM76" s="146"/>
+      <c r="AH76" s="133"/>
+      <c r="AI76" s="134"/>
+      <c r="AJ76" s="134"/>
+      <c r="AK76" s="134"/>
+      <c r="AL76" s="134"/>
+      <c r="AM76" s="135"/>
       <c r="AN76" s="30" cm="1">
         <f t="array" ref="AN76">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7319,12 +7319,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH77" s="144"/>
-      <c r="AI77" s="145"/>
-      <c r="AJ77" s="145"/>
-      <c r="AK77" s="145"/>
-      <c r="AL77" s="145"/>
-      <c r="AM77" s="146"/>
+      <c r="AH77" s="133"/>
+      <c r="AI77" s="134"/>
+      <c r="AJ77" s="134"/>
+      <c r="AK77" s="134"/>
+      <c r="AL77" s="134"/>
+      <c r="AM77" s="135"/>
       <c r="AN77" s="30" cm="1">
         <f t="array" ref="AN77">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7380,12 +7380,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH78" s="144"/>
-      <c r="AI78" s="145"/>
-      <c r="AJ78" s="145"/>
-      <c r="AK78" s="145"/>
-      <c r="AL78" s="145"/>
-      <c r="AM78" s="146"/>
+      <c r="AH78" s="133"/>
+      <c r="AI78" s="134"/>
+      <c r="AJ78" s="134"/>
+      <c r="AK78" s="134"/>
+      <c r="AL78" s="134"/>
+      <c r="AM78" s="135"/>
       <c r="AN78" s="30" cm="1">
         <f t="array" ref="AN78">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7441,12 +7441,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH79" s="144"/>
-      <c r="AI79" s="145"/>
-      <c r="AJ79" s="145"/>
-      <c r="AK79" s="145"/>
-      <c r="AL79" s="145"/>
-      <c r="AM79" s="146"/>
+      <c r="AH79" s="133"/>
+      <c r="AI79" s="134"/>
+      <c r="AJ79" s="134"/>
+      <c r="AK79" s="134"/>
+      <c r="AL79" s="134"/>
+      <c r="AM79" s="135"/>
       <c r="AN79" s="30" cm="1">
         <f t="array" ref="AN79">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7502,12 +7502,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH80" s="144"/>
-      <c r="AI80" s="145"/>
-      <c r="AJ80" s="145"/>
-      <c r="AK80" s="145"/>
-      <c r="AL80" s="145"/>
-      <c r="AM80" s="146"/>
+      <c r="AH80" s="133"/>
+      <c r="AI80" s="134"/>
+      <c r="AJ80" s="134"/>
+      <c r="AK80" s="134"/>
+      <c r="AL80" s="134"/>
+      <c r="AM80" s="135"/>
       <c r="AN80" s="30" cm="1">
         <f t="array" ref="AN80">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7563,12 +7563,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH81" s="144"/>
-      <c r="AI81" s="145"/>
-      <c r="AJ81" s="145"/>
-      <c r="AK81" s="145"/>
-      <c r="AL81" s="145"/>
-      <c r="AM81" s="146"/>
+      <c r="AH81" s="133"/>
+      <c r="AI81" s="134"/>
+      <c r="AJ81" s="134"/>
+      <c r="AK81" s="134"/>
+      <c r="AL81" s="134"/>
+      <c r="AM81" s="135"/>
       <c r="AN81" s="30" cm="1">
         <f t="array" ref="AN81">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7624,12 +7624,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH82" s="144"/>
-      <c r="AI82" s="145"/>
-      <c r="AJ82" s="145"/>
-      <c r="AK82" s="145"/>
-      <c r="AL82" s="145"/>
-      <c r="AM82" s="146"/>
+      <c r="AH82" s="133"/>
+      <c r="AI82" s="134"/>
+      <c r="AJ82" s="134"/>
+      <c r="AK82" s="134"/>
+      <c r="AL82" s="134"/>
+      <c r="AM82" s="135"/>
       <c r="AN82" s="30" cm="1">
         <f t="array" ref="AN82">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7685,12 +7685,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH83" s="144"/>
-      <c r="AI83" s="145"/>
-      <c r="AJ83" s="145"/>
-      <c r="AK83" s="145"/>
-      <c r="AL83" s="145"/>
-      <c r="AM83" s="146"/>
+      <c r="AH83" s="133"/>
+      <c r="AI83" s="134"/>
+      <c r="AJ83" s="134"/>
+      <c r="AK83" s="134"/>
+      <c r="AL83" s="134"/>
+      <c r="AM83" s="135"/>
       <c r="AN83" s="30" cm="1">
         <f t="array" ref="AN83">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7746,12 +7746,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH84" s="144"/>
-      <c r="AI84" s="145"/>
-      <c r="AJ84" s="145"/>
-      <c r="AK84" s="145"/>
-      <c r="AL84" s="145"/>
-      <c r="AM84" s="146"/>
+      <c r="AH84" s="133"/>
+      <c r="AI84" s="134"/>
+      <c r="AJ84" s="134"/>
+      <c r="AK84" s="134"/>
+      <c r="AL84" s="134"/>
+      <c r="AM84" s="135"/>
       <c r="AN84" s="30" cm="1">
         <f t="array" ref="AN84">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7807,12 +7807,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH85" s="144"/>
-      <c r="AI85" s="145"/>
-      <c r="AJ85" s="145"/>
-      <c r="AK85" s="145"/>
-      <c r="AL85" s="145"/>
-      <c r="AM85" s="146"/>
+      <c r="AH85" s="133"/>
+      <c r="AI85" s="134"/>
+      <c r="AJ85" s="134"/>
+      <c r="AK85" s="134"/>
+      <c r="AL85" s="134"/>
+      <c r="AM85" s="135"/>
       <c r="AN85" s="30" cm="1">
         <f t="array" ref="AN85">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7868,12 +7868,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH86" s="144"/>
-      <c r="AI86" s="145"/>
-      <c r="AJ86" s="145"/>
-      <c r="AK86" s="145"/>
-      <c r="AL86" s="145"/>
-      <c r="AM86" s="146"/>
+      <c r="AH86" s="133"/>
+      <c r="AI86" s="134"/>
+      <c r="AJ86" s="134"/>
+      <c r="AK86" s="134"/>
+      <c r="AL86" s="134"/>
+      <c r="AM86" s="135"/>
       <c r="AN86" s="30" cm="1">
         <f t="array" ref="AN86">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7929,12 +7929,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH87" s="144"/>
-      <c r="AI87" s="145"/>
-      <c r="AJ87" s="145"/>
-      <c r="AK87" s="145"/>
-      <c r="AL87" s="145"/>
-      <c r="AM87" s="146"/>
+      <c r="AH87" s="133"/>
+      <c r="AI87" s="134"/>
+      <c r="AJ87" s="134"/>
+      <c r="AK87" s="134"/>
+      <c r="AL87" s="134"/>
+      <c r="AM87" s="135"/>
       <c r="AN87" s="30" cm="1">
         <f t="array" ref="AN87">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -7990,12 +7990,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH88" s="144"/>
-      <c r="AI88" s="145"/>
-      <c r="AJ88" s="145"/>
-      <c r="AK88" s="145"/>
-      <c r="AL88" s="145"/>
-      <c r="AM88" s="146"/>
+      <c r="AH88" s="133"/>
+      <c r="AI88" s="134"/>
+      <c r="AJ88" s="134"/>
+      <c r="AK88" s="134"/>
+      <c r="AL88" s="134"/>
+      <c r="AM88" s="135"/>
       <c r="AN88" s="30" cm="1">
         <f t="array" ref="AN88">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -8051,12 +8051,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH89" s="144"/>
-      <c r="AI89" s="145"/>
-      <c r="AJ89" s="145"/>
-      <c r="AK89" s="145"/>
-      <c r="AL89" s="145"/>
-      <c r="AM89" s="146"/>
+      <c r="AH89" s="133"/>
+      <c r="AI89" s="134"/>
+      <c r="AJ89" s="134"/>
+      <c r="AK89" s="134"/>
+      <c r="AL89" s="134"/>
+      <c r="AM89" s="135"/>
       <c r="AN89" s="30" cm="1">
         <f t="array" ref="AN89">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -8112,12 +8112,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH90" s="144"/>
-      <c r="AI90" s="145"/>
-      <c r="AJ90" s="145"/>
-      <c r="AK90" s="145"/>
-      <c r="AL90" s="145"/>
-      <c r="AM90" s="146"/>
+      <c r="AH90" s="133"/>
+      <c r="AI90" s="134"/>
+      <c r="AJ90" s="134"/>
+      <c r="AK90" s="134"/>
+      <c r="AL90" s="134"/>
+      <c r="AM90" s="135"/>
       <c r="AN90" s="30" cm="1">
         <f t="array" ref="AN90">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -8173,12 +8173,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH91" s="144"/>
-      <c r="AI91" s="145"/>
-      <c r="AJ91" s="145"/>
-      <c r="AK91" s="145"/>
-      <c r="AL91" s="145"/>
-      <c r="AM91" s="146"/>
+      <c r="AH91" s="133"/>
+      <c r="AI91" s="134"/>
+      <c r="AJ91" s="134"/>
+      <c r="AK91" s="134"/>
+      <c r="AL91" s="134"/>
+      <c r="AM91" s="135"/>
       <c r="AN91" s="30" cm="1">
         <f t="array" ref="AN91">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -8234,12 +8234,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH92" s="144"/>
-      <c r="AI92" s="145"/>
-      <c r="AJ92" s="145"/>
-      <c r="AK92" s="145"/>
-      <c r="AL92" s="145"/>
-      <c r="AM92" s="146"/>
+      <c r="AH92" s="133"/>
+      <c r="AI92" s="134"/>
+      <c r="AJ92" s="134"/>
+      <c r="AK92" s="134"/>
+      <c r="AL92" s="134"/>
+      <c r="AM92" s="135"/>
       <c r="AN92" s="30" cm="1">
         <f t="array" ref="AN92">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -8295,12 +8295,12 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AH93" s="183"/>
-      <c r="AI93" s="169"/>
-      <c r="AJ93" s="169"/>
-      <c r="AK93" s="169"/>
-      <c r="AL93" s="169"/>
-      <c r="AM93" s="170"/>
+      <c r="AH93" s="216"/>
+      <c r="AI93" s="217"/>
+      <c r="AJ93" s="217"/>
+      <c r="AK93" s="217"/>
+      <c r="AL93" s="217"/>
+      <c r="AM93" s="218"/>
       <c r="AN93" s="30" cm="1">
         <f t="array" ref="AN93">IF(ISNUMBER(SEARCH(REPT("A",5),
 _xlfn.TEXTJOIN("",TRUE,
@@ -8314,10 +8314,10 @@
       </c>
     </row>
     <row r="94" spans="1:40" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="171" t="s">
+      <c r="A94" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="B94" s="172"/>
+      <c r="B94" s="205"/>
       <c r="C94" s="120"/>
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
@@ -8430,18 +8430,18 @@
         <f>SUM(AG54:AG93)</f>
         <v>0</v>
       </c>
-      <c r="AH94" s="173"/>
-      <c r="AI94" s="174"/>
-      <c r="AJ94" s="174"/>
-      <c r="AK94" s="174"/>
-      <c r="AL94" s="174"/>
-      <c r="AM94" s="175"/>
+      <c r="AH94" s="206"/>
+      <c r="AI94" s="207"/>
+      <c r="AJ94" s="207"/>
+      <c r="AK94" s="207"/>
+      <c r="AL94" s="207"/>
+      <c r="AM94" s="208"/>
     </row>
     <row r="95" spans="1:40" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="176" t="s">
+      <c r="A95" s="209" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="177"/>
+      <c r="B95" s="210"/>
       <c r="C95" s="126"/>
       <c r="D95" s="126"/>
       <c r="E95" s="126"/>
@@ -8554,25 +8554,25 @@
         <f>AG94+AG53</f>
         <v>0</v>
       </c>
-      <c r="AH95" s="178"/>
-      <c r="AI95" s="179"/>
-      <c r="AJ95" s="179"/>
-      <c r="AK95" s="179"/>
-      <c r="AL95" s="179"/>
-      <c r="AM95" s="180"/>
+      <c r="AH95" s="211"/>
+      <c r="AI95" s="212"/>
+      <c r="AJ95" s="212"/>
+      <c r="AK95" s="212"/>
+      <c r="AL95" s="212"/>
+      <c r="AM95" s="213"/>
     </row>
     <row r="96" spans="1:40" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="181"/>
-      <c r="B96" s="181"/>
+      <c r="A96" s="214"/>
+      <c r="B96" s="214"/>
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
       <c r="E96" s="49"/>
       <c r="F96" s="49"/>
-      <c r="G96" s="182"/>
-      <c r="H96" s="182"/>
-      <c r="I96" s="182"/>
-      <c r="J96" s="182"/>
-      <c r="K96" s="182"/>
+      <c r="G96" s="215"/>
+      <c r="H96" s="215"/>
+      <c r="I96" s="215"/>
+      <c r="J96" s="215"/>
+      <c r="K96" s="215"/>
     </row>
     <row r="97" spans="1:39" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="50" t="s">
@@ -8611,11 +8611,11 @@
       <c r="AE97" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AF97" s="207" t="str">
+      <c r="AF97" s="200" t="str">
         <f>IF(AA6="","",AA6)</f>
         <v/>
       </c>
-      <c r="AG97" s="208"/>
+      <c r="AG97" s="201"/>
       <c r="AH97" s="184" t="s">
         <v>20</v>
       </c>
@@ -8631,42 +8631,42 @@
       <c r="AM97" s="191"/>
     </row>
     <row r="98" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="192" t="s">
+      <c r="A98" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="192"/>
-      <c r="C98" s="192"/>
-      <c r="D98" s="192"/>
-      <c r="E98" s="192"/>
-      <c r="F98" s="192"/>
-      <c r="G98" s="192"/>
-      <c r="H98" s="192"/>
-      <c r="I98" s="192"/>
-      <c r="J98" s="192"/>
-      <c r="K98" s="192"/>
-      <c r="L98" s="192"/>
-      <c r="M98" s="192"/>
-      <c r="N98" s="192"/>
-      <c r="O98" s="192"/>
-      <c r="P98" s="192"/>
-      <c r="Q98" s="192"/>
+      <c r="B98" s="160"/>
+      <c r="C98" s="160"/>
+      <c r="D98" s="160"/>
+      <c r="E98" s="160"/>
+      <c r="F98" s="160"/>
+      <c r="G98" s="160"/>
+      <c r="H98" s="160"/>
+      <c r="I98" s="160"/>
+      <c r="J98" s="160"/>
+      <c r="K98" s="160"/>
+      <c r="L98" s="160"/>
+      <c r="M98" s="160"/>
+      <c r="N98" s="160"/>
+      <c r="O98" s="160"/>
+      <c r="P98" s="160"/>
+      <c r="Q98" s="160"/>
       <c r="R98" s="52"/>
       <c r="S98" s="53"/>
-      <c r="T98" s="193" t="s">
+      <c r="T98" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="U98" s="194"/>
-      <c r="V98" s="194"/>
-      <c r="W98" s="194"/>
-      <c r="X98" s="194"/>
-      <c r="Y98" s="194"/>
-      <c r="Z98" s="194"/>
-      <c r="AA98" s="194"/>
-      <c r="AB98" s="194"/>
+      <c r="U98" s="193"/>
+      <c r="V98" s="193"/>
+      <c r="W98" s="193"/>
+      <c r="X98" s="193"/>
+      <c r="Y98" s="193"/>
+      <c r="Z98" s="193"/>
+      <c r="AA98" s="193"/>
+      <c r="AB98" s="193"/>
       <c r="AC98" s="60"/>
       <c r="AE98" s="61"/>
-      <c r="AF98" s="209"/>
-      <c r="AG98" s="210"/>
+      <c r="AF98" s="202"/>
+      <c r="AG98" s="203"/>
       <c r="AH98" s="186"/>
       <c r="AI98" s="187"/>
       <c r="AJ98" s="189"/>
@@ -8681,121 +8681,121 @@
       </c>
     </row>
     <row r="99" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="192" t="s">
+      <c r="A99" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="192"/>
-      <c r="C99" s="192"/>
-      <c r="D99" s="192"/>
-      <c r="E99" s="192"/>
-      <c r="F99" s="192"/>
-      <c r="G99" s="192"/>
-      <c r="H99" s="192"/>
-      <c r="I99" s="192"/>
-      <c r="J99" s="192"/>
-      <c r="K99" s="192"/>
-      <c r="L99" s="192"/>
-      <c r="M99" s="192"/>
-      <c r="N99" s="192"/>
-      <c r="O99" s="192"/>
-      <c r="P99" s="192"/>
-      <c r="Q99" s="192"/>
+      <c r="B99" s="160"/>
+      <c r="C99" s="160"/>
+      <c r="D99" s="160"/>
+      <c r="E99" s="160"/>
+      <c r="F99" s="160"/>
+      <c r="G99" s="160"/>
+      <c r="H99" s="160"/>
+      <c r="I99" s="160"/>
+      <c r="J99" s="160"/>
+      <c r="K99" s="160"/>
+      <c r="L99" s="160"/>
+      <c r="M99" s="160"/>
+      <c r="N99" s="160"/>
+      <c r="O99" s="160"/>
+      <c r="P99" s="160"/>
+      <c r="Q99" s="160"/>
       <c r="R99" s="52"/>
       <c r="S99" s="53"/>
-      <c r="T99" s="195"/>
-      <c r="U99" s="196"/>
-      <c r="V99" s="196"/>
-      <c r="W99" s="196"/>
-      <c r="X99" s="196"/>
-      <c r="Y99" s="196"/>
-      <c r="Z99" s="196"/>
-      <c r="AA99" s="196"/>
-      <c r="AB99" s="196"/>
+      <c r="T99" s="138"/>
+      <c r="U99" s="139"/>
+      <c r="V99" s="139"/>
+      <c r="W99" s="139"/>
+      <c r="X99" s="139"/>
+      <c r="Y99" s="139"/>
+      <c r="Z99" s="139"/>
+      <c r="AA99" s="139"/>
+      <c r="AB99" s="139"/>
       <c r="AC99" s="60"/>
-      <c r="AE99" s="197" t="s">
+      <c r="AE99" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="AF99" s="198"/>
-      <c r="AG99" s="198"/>
-      <c r="AH99" s="198"/>
-      <c r="AI99" s="198"/>
-      <c r="AJ99" s="199"/>
-      <c r="AK99" s="203"/>
-      <c r="AL99" s="203"/>
-      <c r="AM99" s="205">
+      <c r="AF99" s="195"/>
+      <c r="AG99" s="195"/>
+      <c r="AH99" s="195"/>
+      <c r="AI99" s="195"/>
+      <c r="AJ99" s="196"/>
+      <c r="AK99" s="175"/>
+      <c r="AL99" s="175"/>
+      <c r="AM99" s="158">
         <f>SUM(AK99:AL100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="192" t="s">
+      <c r="A100" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="B100" s="192"/>
-      <c r="C100" s="192"/>
-      <c r="D100" s="192"/>
-      <c r="E100" s="192"/>
-      <c r="F100" s="192"/>
-      <c r="G100" s="192"/>
-      <c r="H100" s="192"/>
-      <c r="I100" s="192"/>
-      <c r="J100" s="192"/>
-      <c r="K100" s="192"/>
-      <c r="L100" s="192"/>
-      <c r="M100" s="192"/>
-      <c r="N100" s="192"/>
-      <c r="O100" s="192"/>
-      <c r="P100" s="192"/>
-      <c r="Q100" s="192"/>
+      <c r="B100" s="160"/>
+      <c r="C100" s="160"/>
+      <c r="D100" s="160"/>
+      <c r="E100" s="160"/>
+      <c r="F100" s="160"/>
+      <c r="G100" s="160"/>
+      <c r="H100" s="160"/>
+      <c r="I100" s="160"/>
+      <c r="J100" s="160"/>
+      <c r="K100" s="160"/>
+      <c r="L100" s="160"/>
+      <c r="M100" s="160"/>
+      <c r="N100" s="160"/>
+      <c r="O100" s="160"/>
+      <c r="P100" s="160"/>
+      <c r="Q100" s="160"/>
       <c r="R100" s="52"/>
       <c r="S100" s="53"/>
-      <c r="T100" s="195"/>
-      <c r="U100" s="196"/>
-      <c r="V100" s="196"/>
-      <c r="W100" s="196"/>
-      <c r="X100" s="196"/>
-      <c r="Y100" s="196"/>
-      <c r="Z100" s="196"/>
-      <c r="AA100" s="196"/>
-      <c r="AB100" s="196"/>
+      <c r="T100" s="138"/>
+      <c r="U100" s="139"/>
+      <c r="V100" s="139"/>
+      <c r="W100" s="139"/>
+      <c r="X100" s="139"/>
+      <c r="Y100" s="139"/>
+      <c r="Z100" s="139"/>
+      <c r="AA100" s="139"/>
+      <c r="AB100" s="139"/>
       <c r="AC100" s="60"/>
-      <c r="AE100" s="200"/>
-      <c r="AF100" s="201"/>
-      <c r="AG100" s="201"/>
-      <c r="AH100" s="201"/>
-      <c r="AI100" s="201"/>
-      <c r="AJ100" s="202"/>
-      <c r="AK100" s="204"/>
-      <c r="AL100" s="204"/>
-      <c r="AM100" s="206"/>
+      <c r="AE100" s="197"/>
+      <c r="AF100" s="198"/>
+      <c r="AG100" s="198"/>
+      <c r="AH100" s="198"/>
+      <c r="AI100" s="198"/>
+      <c r="AJ100" s="199"/>
+      <c r="AK100" s="176"/>
+      <c r="AL100" s="176"/>
+      <c r="AM100" s="177"/>
     </row>
     <row r="101" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="211" t="s">
+      <c r="A101" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="212" t="s">
+      <c r="B101" s="167" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="67"/>
       <c r="D101" s="67"/>
       <c r="E101" s="67"/>
       <c r="F101" s="67"/>
-      <c r="G101" s="213" t="s">
+      <c r="G101" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="H101" s="213"/>
-      <c r="I101" s="213"/>
-      <c r="J101" s="213"/>
-      <c r="K101" s="213"/>
-      <c r="L101" s="213"/>
-      <c r="M101" s="213"/>
-      <c r="N101" s="213"/>
-      <c r="O101" s="213"/>
-      <c r="P101" s="213"/>
-      <c r="Q101" s="214" t="s">
+      <c r="H101" s="168"/>
+      <c r="I101" s="168"/>
+      <c r="J101" s="168"/>
+      <c r="K101" s="168"/>
+      <c r="L101" s="168"/>
+      <c r="M101" s="168"/>
+      <c r="N101" s="168"/>
+      <c r="O101" s="168"/>
+      <c r="P101" s="168"/>
+      <c r="Q101" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="R101" s="214"/>
+      <c r="R101" s="169"/>
       <c r="S101" s="53"/>
       <c r="T101" s="69" t="s">
         <v>31</v>
@@ -8803,42 +8803,42 @@
       <c r="Y101" s="27"/>
       <c r="AB101" s="70"/>
       <c r="AC101" s="60"/>
-      <c r="AE101" s="215" t="s">
+      <c r="AE101" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="AF101" s="216"/>
-      <c r="AG101" s="216"/>
-      <c r="AH101" s="216"/>
-      <c r="AI101" s="216"/>
-      <c r="AJ101" s="216"/>
-      <c r="AK101" s="217"/>
-      <c r="AL101" s="217"/>
-      <c r="AM101" s="218">
+      <c r="AF101" s="154"/>
+      <c r="AG101" s="154"/>
+      <c r="AH101" s="154"/>
+      <c r="AI101" s="154"/>
+      <c r="AJ101" s="154"/>
+      <c r="AK101" s="181"/>
+      <c r="AL101" s="181"/>
+      <c r="AM101" s="182">
         <f>SUM(AK101:AL102)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="211"/>
-      <c r="B102" s="212"/>
+      <c r="A102" s="172"/>
+      <c r="B102" s="167"/>
       <c r="C102" s="67"/>
       <c r="D102" s="67"/>
       <c r="E102" s="67"/>
       <c r="F102" s="67"/>
-      <c r="G102" s="220" t="s">
+      <c r="G102" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="H102" s="220"/>
-      <c r="I102" s="220"/>
-      <c r="J102" s="220"/>
-      <c r="K102" s="220"/>
-      <c r="L102" s="220"/>
-      <c r="M102" s="220"/>
-      <c r="N102" s="220"/>
-      <c r="O102" s="220"/>
-      <c r="P102" s="220"/>
-      <c r="Q102" s="214"/>
-      <c r="R102" s="214"/>
+      <c r="H102" s="178"/>
+      <c r="I102" s="178"/>
+      <c r="J102" s="178"/>
+      <c r="K102" s="178"/>
+      <c r="L102" s="178"/>
+      <c r="M102" s="178"/>
+      <c r="N102" s="178"/>
+      <c r="O102" s="178"/>
+      <c r="P102" s="178"/>
+      <c r="Q102" s="169"/>
+      <c r="R102" s="169"/>
       <c r="S102" s="53"/>
       <c r="T102" s="69" t="s">
         <v>34</v>
@@ -8850,39 +8850,39 @@
       <c r="Y102" s="27"/>
       <c r="AB102" s="70"/>
       <c r="AC102" s="60"/>
-      <c r="AE102" s="215"/>
-      <c r="AF102" s="216"/>
-      <c r="AG102" s="216"/>
-      <c r="AH102" s="216"/>
-      <c r="AI102" s="216"/>
-      <c r="AJ102" s="216"/>
-      <c r="AK102" s="217"/>
-      <c r="AL102" s="217"/>
-      <c r="AM102" s="219"/>
+      <c r="AE102" s="153"/>
+      <c r="AF102" s="154"/>
+      <c r="AG102" s="154"/>
+      <c r="AH102" s="154"/>
+      <c r="AI102" s="154"/>
+      <c r="AJ102" s="154"/>
+      <c r="AK102" s="181"/>
+      <c r="AL102" s="181"/>
+      <c r="AM102" s="183"/>
     </row>
     <row r="103" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="211" t="s">
+      <c r="A103" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="221" t="s">
+      <c r="B103" s="173" t="s">
         <v>36</v>
       </c>
       <c r="C103" s="71"/>
       <c r="D103" s="71"/>
       <c r="E103" s="71"/>
       <c r="F103" s="71"/>
-      <c r="G103" s="222" t="s">
+      <c r="G103" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="H103" s="222"/>
-      <c r="I103" s="222"/>
-      <c r="J103" s="222"/>
-      <c r="K103" s="222"/>
-      <c r="L103" s="222"/>
-      <c r="M103" s="222"/>
-      <c r="N103" s="222"/>
-      <c r="O103" s="222"/>
-      <c r="P103" s="222"/>
+      <c r="H103" s="174"/>
+      <c r="I103" s="174"/>
+      <c r="J103" s="174"/>
+      <c r="K103" s="174"/>
+      <c r="L103" s="174"/>
+      <c r="M103" s="174"/>
+      <c r="N103" s="174"/>
+      <c r="O103" s="174"/>
+      <c r="P103" s="174"/>
       <c r="Q103" s="72"/>
       <c r="R103" s="52"/>
       <c r="S103" s="53"/>
@@ -8896,40 +8896,40 @@
       <c r="Y103" s="27"/>
       <c r="AB103" s="70"/>
       <c r="AC103" s="60"/>
-      <c r="AE103" s="215" t="s">
+      <c r="AE103" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="AF103" s="216"/>
-      <c r="AG103" s="216"/>
-      <c r="AH103" s="216"/>
-      <c r="AI103" s="216"/>
-      <c r="AJ103" s="216"/>
-      <c r="AK103" s="203"/>
-      <c r="AL103" s="203"/>
-      <c r="AM103" s="205">
-        <f>SUM(AM101)</f>
+      <c r="AF103" s="154"/>
+      <c r="AG103" s="154"/>
+      <c r="AH103" s="154"/>
+      <c r="AI103" s="154"/>
+      <c r="AJ103" s="154"/>
+      <c r="AK103" s="175"/>
+      <c r="AL103" s="175"/>
+      <c r="AM103" s="158">
+        <f>SUM(AK103:AL104)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="211"/>
-      <c r="B104" s="221"/>
+      <c r="A104" s="172"/>
+      <c r="B104" s="173"/>
       <c r="C104" s="71"/>
       <c r="D104" s="71"/>
       <c r="E104" s="71"/>
       <c r="F104" s="71"/>
-      <c r="G104" s="220" t="s">
+      <c r="G104" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="H104" s="220"/>
-      <c r="I104" s="220"/>
-      <c r="J104" s="220"/>
-      <c r="K104" s="220"/>
-      <c r="L104" s="220"/>
-      <c r="M104" s="220"/>
-      <c r="N104" s="220"/>
-      <c r="O104" s="220"/>
-      <c r="P104" s="220"/>
+      <c r="H104" s="178"/>
+      <c r="I104" s="178"/>
+      <c r="J104" s="178"/>
+      <c r="K104" s="178"/>
+      <c r="L104" s="178"/>
+      <c r="M104" s="178"/>
+      <c r="N104" s="178"/>
+      <c r="O104" s="178"/>
+      <c r="P104" s="178"/>
       <c r="Q104" s="52"/>
       <c r="R104" s="52"/>
       <c r="S104" s="53"/>
@@ -8939,123 +8939,123 @@
       <c r="Y104" s="27"/>
       <c r="AB104" s="70"/>
       <c r="AC104" s="60"/>
-      <c r="AE104" s="215"/>
-      <c r="AF104" s="216"/>
-      <c r="AG104" s="216"/>
-      <c r="AH104" s="216"/>
-      <c r="AI104" s="216"/>
-      <c r="AJ104" s="216"/>
-      <c r="AK104" s="204"/>
-      <c r="AL104" s="204"/>
-      <c r="AM104" s="206"/>
+      <c r="AE104" s="153"/>
+      <c r="AF104" s="154"/>
+      <c r="AG104" s="154"/>
+      <c r="AH104" s="154"/>
+      <c r="AI104" s="154"/>
+      <c r="AJ104" s="154"/>
+      <c r="AK104" s="176"/>
+      <c r="AL104" s="176"/>
+      <c r="AM104" s="177"/>
     </row>
     <row r="105" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="232" t="s">
+      <c r="A105" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="B105" s="212" t="s">
+      <c r="B105" s="167" t="s">
         <v>43</v>
       </c>
       <c r="C105" s="67"/>
       <c r="D105" s="67"/>
       <c r="E105" s="67"/>
       <c r="F105" s="67"/>
-      <c r="G105" s="213" t="s">
+      <c r="G105" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="H105" s="213"/>
-      <c r="I105" s="213"/>
-      <c r="J105" s="213"/>
-      <c r="K105" s="213"/>
-      <c r="L105" s="213"/>
-      <c r="M105" s="213"/>
-      <c r="N105" s="213"/>
-      <c r="O105" s="213"/>
-      <c r="P105" s="213"/>
-      <c r="Q105" s="214" t="s">
+      <c r="H105" s="168"/>
+      <c r="I105" s="168"/>
+      <c r="J105" s="168"/>
+      <c r="K105" s="168"/>
+      <c r="L105" s="168"/>
+      <c r="M105" s="168"/>
+      <c r="N105" s="168"/>
+      <c r="O105" s="168"/>
+      <c r="P105" s="168"/>
+      <c r="Q105" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="R105" s="214"/>
+      <c r="R105" s="169"/>
       <c r="S105" s="53"/>
       <c r="T105" s="73" t="s">
         <v>45</v>
       </c>
       <c r="AB105" s="70"/>
       <c r="AC105" s="60"/>
-      <c r="AE105" s="215" t="s">
+      <c r="AE105" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="AF105" s="216"/>
-      <c r="AG105" s="216"/>
-      <c r="AH105" s="216"/>
-      <c r="AI105" s="216"/>
-      <c r="AJ105" s="216"/>
-      <c r="AK105" s="223" t="str">
+      <c r="AF105" s="154"/>
+      <c r="AG105" s="154"/>
+      <c r="AH105" s="154"/>
+      <c r="AI105" s="154"/>
+      <c r="AJ105" s="154"/>
+      <c r="AK105" s="170" t="str">
         <f>IFERROR(AK103/AK99*100,"")</f>
         <v/>
       </c>
-      <c r="AL105" s="223" t="str">
+      <c r="AL105" s="170" t="str">
         <f>IFERROR(AL103/AL99*100,"")</f>
         <v/>
       </c>
-      <c r="AM105" s="225" t="str">
+      <c r="AM105" s="179" t="str">
         <f>IFERROR(AM103/AM99*100,"")</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="232"/>
-      <c r="B106" s="212"/>
+      <c r="A106" s="166"/>
+      <c r="B106" s="167"/>
       <c r="C106" s="67"/>
       <c r="D106" s="67"/>
       <c r="E106" s="67"/>
       <c r="F106" s="67"/>
-      <c r="G106" s="214" t="s">
+      <c r="G106" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="H106" s="214"/>
-      <c r="I106" s="214"/>
-      <c r="J106" s="214"/>
-      <c r="K106" s="214"/>
-      <c r="L106" s="214"/>
-      <c r="M106" s="214"/>
-      <c r="N106" s="214"/>
-      <c r="O106" s="214"/>
-      <c r="P106" s="214"/>
-      <c r="Q106" s="214"/>
-      <c r="R106" s="214"/>
+      <c r="H106" s="169"/>
+      <c r="I106" s="169"/>
+      <c r="J106" s="169"/>
+      <c r="K106" s="169"/>
+      <c r="L106" s="169"/>
+      <c r="M106" s="169"/>
+      <c r="N106" s="169"/>
+      <c r="O106" s="169"/>
+      <c r="P106" s="169"/>
+      <c r="Q106" s="169"/>
+      <c r="R106" s="169"/>
       <c r="S106" s="53"/>
       <c r="T106" s="73" t="s">
         <v>48</v>
       </c>
       <c r="AB106" s="70"/>
       <c r="AC106" s="60"/>
-      <c r="AE106" s="215"/>
-      <c r="AF106" s="216"/>
-      <c r="AG106" s="216"/>
-      <c r="AH106" s="216"/>
-      <c r="AI106" s="216"/>
-      <c r="AJ106" s="216"/>
-      <c r="AK106" s="224"/>
-      <c r="AL106" s="224"/>
-      <c r="AM106" s="226"/>
+      <c r="AE106" s="153"/>
+      <c r="AF106" s="154"/>
+      <c r="AG106" s="154"/>
+      <c r="AH106" s="154"/>
+      <c r="AI106" s="154"/>
+      <c r="AJ106" s="154"/>
+      <c r="AK106" s="171"/>
+      <c r="AL106" s="171"/>
+      <c r="AM106" s="180"/>
     </row>
     <row r="107" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="192"/>
-      <c r="B107" s="192"/>
-      <c r="C107" s="192"/>
-      <c r="D107" s="192"/>
-      <c r="E107" s="192"/>
-      <c r="F107" s="192"/>
-      <c r="G107" s="192"/>
-      <c r="H107" s="192"/>
-      <c r="I107" s="192"/>
-      <c r="J107" s="192"/>
-      <c r="K107" s="192"/>
-      <c r="L107" s="192"/>
-      <c r="M107" s="192"/>
-      <c r="N107" s="192"/>
-      <c r="O107" s="192"/>
+      <c r="A107" s="160"/>
+      <c r="B107" s="160"/>
+      <c r="C107" s="160"/>
+      <c r="D107" s="160"/>
+      <c r="E107" s="160"/>
+      <c r="F107" s="160"/>
+      <c r="G107" s="160"/>
+      <c r="H107" s="160"/>
+      <c r="I107" s="160"/>
+      <c r="J107" s="160"/>
+      <c r="K107" s="160"/>
+      <c r="L107" s="160"/>
+      <c r="M107" s="160"/>
+      <c r="N107" s="160"/>
+      <c r="O107" s="160"/>
       <c r="P107" s="68"/>
       <c r="Q107" s="68"/>
       <c r="R107" s="52"/>
@@ -9065,14 +9065,14 @@
       </c>
       <c r="AB107" s="27"/>
       <c r="AC107" s="60"/>
-      <c r="AE107" s="227" t="s">
+      <c r="AE107" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="AF107" s="228"/>
-      <c r="AG107" s="228"/>
-      <c r="AH107" s="228"/>
-      <c r="AI107" s="228"/>
-      <c r="AJ107" s="228"/>
+      <c r="AF107" s="162"/>
+      <c r="AG107" s="162"/>
+      <c r="AH107" s="162"/>
+      <c r="AI107" s="162"/>
+      <c r="AJ107" s="162"/>
       <c r="AK107" s="101" t="str">
         <f>IF(COUNTA(G11:AE11)&lt;&gt;0,AG53/AJ97,"")</f>
         <v/>
@@ -9087,25 +9087,25 @@
       </c>
     </row>
     <row r="108" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="229" t="s">
+      <c r="A108" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="B108" s="229"/>
-      <c r="C108" s="229"/>
-      <c r="D108" s="229"/>
-      <c r="E108" s="229"/>
-      <c r="F108" s="229"/>
-      <c r="G108" s="229"/>
-      <c r="H108" s="229"/>
-      <c r="I108" s="229"/>
-      <c r="J108" s="229"/>
-      <c r="K108" s="229"/>
-      <c r="L108" s="229"/>
-      <c r="M108" s="229"/>
-      <c r="N108" s="229"/>
-      <c r="O108" s="229"/>
-      <c r="P108" s="229"/>
-      <c r="Q108" s="229"/>
+      <c r="B108" s="163"/>
+      <c r="C108" s="163"/>
+      <c r="D108" s="163"/>
+      <c r="E108" s="163"/>
+      <c r="F108" s="163"/>
+      <c r="G108" s="163"/>
+      <c r="H108" s="163"/>
+      <c r="I108" s="163"/>
+      <c r="J108" s="163"/>
+      <c r="K108" s="163"/>
+      <c r="L108" s="163"/>
+      <c r="M108" s="163"/>
+      <c r="N108" s="163"/>
+      <c r="O108" s="163"/>
+      <c r="P108" s="163"/>
+      <c r="Q108" s="163"/>
       <c r="R108" s="72"/>
       <c r="S108" s="53"/>
       <c r="T108" s="73" t="s">
@@ -9113,45 +9113,45 @@
       </c>
       <c r="AB108" s="70"/>
       <c r="AC108" s="60"/>
-      <c r="AE108" s="215" t="s">
+      <c r="AE108" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="AF108" s="216"/>
-      <c r="AG108" s="216"/>
-      <c r="AH108" s="216"/>
-      <c r="AI108" s="216"/>
-      <c r="AJ108" s="216"/>
-      <c r="AK108" s="230" t="str">
+      <c r="AF108" s="154"/>
+      <c r="AG108" s="154"/>
+      <c r="AH108" s="154"/>
+      <c r="AI108" s="154"/>
+      <c r="AJ108" s="154"/>
+      <c r="AK108" s="164" t="str">
         <f>IFERROR(AK107/AK103*100,"")</f>
         <v/>
       </c>
-      <c r="AL108" s="230" t="str">
+      <c r="AL108" s="164" t="str">
         <f>IFERROR(AL107/AL103*100,"")</f>
         <v/>
       </c>
-      <c r="AM108" s="231" t="str">
+      <c r="AM108" s="165" t="str">
         <f>IFERROR(AM107/AM103*100,"")</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="229"/>
-      <c r="B109" s="229"/>
-      <c r="C109" s="229"/>
-      <c r="D109" s="229"/>
-      <c r="E109" s="229"/>
-      <c r="F109" s="229"/>
-      <c r="G109" s="229"/>
-      <c r="H109" s="229"/>
-      <c r="I109" s="229"/>
-      <c r="J109" s="229"/>
-      <c r="K109" s="229"/>
-      <c r="L109" s="229"/>
-      <c r="M109" s="229"/>
-      <c r="N109" s="229"/>
-      <c r="O109" s="229"/>
-      <c r="P109" s="229"/>
-      <c r="Q109" s="229"/>
+      <c r="A109" s="163"/>
+      <c r="B109" s="163"/>
+      <c r="C109" s="163"/>
+      <c r="D109" s="163"/>
+      <c r="E109" s="163"/>
+      <c r="F109" s="163"/>
+      <c r="G109" s="163"/>
+      <c r="H109" s="163"/>
+      <c r="I109" s="163"/>
+      <c r="J109" s="163"/>
+      <c r="K109" s="163"/>
+      <c r="L109" s="163"/>
+      <c r="M109" s="163"/>
+      <c r="N109" s="163"/>
+      <c r="O109" s="163"/>
+      <c r="P109" s="163"/>
+      <c r="Q109" s="163"/>
       <c r="R109" s="72"/>
       <c r="S109" s="53"/>
       <c r="T109" s="73" t="s">
@@ -9159,37 +9159,37 @@
       </c>
       <c r="AB109" s="70"/>
       <c r="AC109" s="60"/>
-      <c r="AE109" s="215"/>
-      <c r="AF109" s="216"/>
-      <c r="AG109" s="216"/>
-      <c r="AH109" s="216"/>
-      <c r="AI109" s="216"/>
-      <c r="AJ109" s="216"/>
-      <c r="AK109" s="230"/>
-      <c r="AL109" s="230"/>
-      <c r="AM109" s="231"/>
+      <c r="AE109" s="153"/>
+      <c r="AF109" s="154"/>
+      <c r="AG109" s="154"/>
+      <c r="AH109" s="154"/>
+      <c r="AI109" s="154"/>
+      <c r="AJ109" s="154"/>
+      <c r="AK109" s="164"/>
+      <c r="AL109" s="164"/>
+      <c r="AM109" s="165"/>
     </row>
     <row r="110" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="233" t="s">
+      <c r="A110" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="B110" s="233"/>
-      <c r="C110" s="233"/>
-      <c r="D110" s="233"/>
-      <c r="E110" s="233"/>
-      <c r="F110" s="233"/>
-      <c r="G110" s="233"/>
-      <c r="H110" s="233"/>
-      <c r="I110" s="233"/>
-      <c r="J110" s="233"/>
-      <c r="K110" s="233"/>
-      <c r="L110" s="233"/>
-      <c r="M110" s="233"/>
-      <c r="N110" s="233"/>
-      <c r="O110" s="233"/>
-      <c r="P110" s="233"/>
-      <c r="Q110" s="233"/>
-      <c r="R110" s="233"/>
+      <c r="B110" s="152"/>
+      <c r="C110" s="152"/>
+      <c r="D110" s="152"/>
+      <c r="E110" s="152"/>
+      <c r="F110" s="152"/>
+      <c r="G110" s="152"/>
+      <c r="H110" s="152"/>
+      <c r="I110" s="152"/>
+      <c r="J110" s="152"/>
+      <c r="K110" s="152"/>
+      <c r="L110" s="152"/>
+      <c r="M110" s="152"/>
+      <c r="N110" s="152"/>
+      <c r="O110" s="152"/>
+      <c r="P110" s="152"/>
+      <c r="Q110" s="152"/>
+      <c r="R110" s="152"/>
       <c r="S110" s="53"/>
       <c r="T110" s="73" t="s">
         <v>56</v>
@@ -9197,61 +9197,61 @@
       <c r="AB110" s="70"/>
       <c r="AC110" s="60"/>
       <c r="AD110" s="75"/>
-      <c r="AE110" s="215" t="s">
+      <c r="AE110" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="AF110" s="216"/>
-      <c r="AG110" s="216"/>
-      <c r="AH110" s="216"/>
-      <c r="AI110" s="216"/>
-      <c r="AJ110" s="216"/>
-      <c r="AK110" s="234">
+      <c r="AF110" s="154"/>
+      <c r="AG110" s="154"/>
+      <c r="AH110" s="154"/>
+      <c r="AI110" s="154"/>
+      <c r="AJ110" s="154"/>
+      <c r="AK110" s="155">
         <f>SUM(AN13:AN52)</f>
         <v>0</v>
       </c>
-      <c r="AL110" s="234">
+      <c r="AL110" s="155">
         <f>SUM(AN54:AN93)</f>
         <v>0</v>
       </c>
-      <c r="AM110" s="236">
+      <c r="AM110" s="157">
         <f>SUM(AK110:AL111)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="233"/>
-      <c r="B111" s="233"/>
-      <c r="C111" s="233"/>
-      <c r="D111" s="233"/>
-      <c r="E111" s="233"/>
-      <c r="F111" s="233"/>
-      <c r="G111" s="233"/>
-      <c r="H111" s="233"/>
-      <c r="I111" s="233"/>
-      <c r="J111" s="233"/>
-      <c r="K111" s="233"/>
-      <c r="L111" s="233"/>
-      <c r="M111" s="233"/>
-      <c r="N111" s="233"/>
-      <c r="O111" s="233"/>
-      <c r="P111" s="233"/>
-      <c r="Q111" s="233"/>
-      <c r="R111" s="233"/>
+      <c r="A111" s="152"/>
+      <c r="B111" s="152"/>
+      <c r="C111" s="152"/>
+      <c r="D111" s="152"/>
+      <c r="E111" s="152"/>
+      <c r="F111" s="152"/>
+      <c r="G111" s="152"/>
+      <c r="H111" s="152"/>
+      <c r="I111" s="152"/>
+      <c r="J111" s="152"/>
+      <c r="K111" s="152"/>
+      <c r="L111" s="152"/>
+      <c r="M111" s="152"/>
+      <c r="N111" s="152"/>
+      <c r="O111" s="152"/>
+      <c r="P111" s="152"/>
+      <c r="Q111" s="152"/>
+      <c r="R111" s="152"/>
       <c r="S111" s="53"/>
       <c r="T111" s="73" t="s">
         <v>58</v>
       </c>
       <c r="AB111" s="27"/>
       <c r="AC111" s="60"/>
-      <c r="AE111" s="215"/>
-      <c r="AF111" s="216"/>
-      <c r="AG111" s="216"/>
-      <c r="AH111" s="216"/>
-      <c r="AI111" s="216"/>
-      <c r="AJ111" s="216"/>
-      <c r="AK111" s="235"/>
-      <c r="AL111" s="235"/>
-      <c r="AM111" s="205"/>
+      <c r="AE111" s="153"/>
+      <c r="AF111" s="154"/>
+      <c r="AG111" s="154"/>
+      <c r="AH111" s="154"/>
+      <c r="AI111" s="154"/>
+      <c r="AJ111" s="154"/>
+      <c r="AK111" s="156"/>
+      <c r="AL111" s="156"/>
+      <c r="AM111" s="158"/>
     </row>
     <row r="112" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="52" t="s">
@@ -9280,23 +9280,23 @@
       </c>
       <c r="AB112" s="70"/>
       <c r="AC112" s="60"/>
-      <c r="AE112" s="237" t="s">
+      <c r="AE112" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="AF112" s="238"/>
-      <c r="AG112" s="238"/>
-      <c r="AH112" s="238"/>
-      <c r="AI112" s="238"/>
-      <c r="AJ112" s="238"/>
-      <c r="AK112" s="239">
+      <c r="AF112" s="144"/>
+      <c r="AG112" s="144"/>
+      <c r="AH112" s="144"/>
+      <c r="AI112" s="144"/>
+      <c r="AJ112" s="144"/>
+      <c r="AK112" s="159">
         <f>COUNTIF(AH13:AI52,"NLS")</f>
         <v>0</v>
       </c>
-      <c r="AL112" s="239">
+      <c r="AL112" s="159">
         <f>COUNTIF(AH54:AI93,"NLS")</f>
         <v>0</v>
       </c>
-      <c r="AM112" s="240">
+      <c r="AM112" s="146">
         <f>SUM(AK112:AL113)</f>
         <v>0</v>
       </c>
@@ -9305,24 +9305,24 @@
       <c r="A113" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B113" s="233" t="s">
+      <c r="B113" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="233"/>
-      <c r="D113" s="233"/>
-      <c r="E113" s="233"/>
-      <c r="F113" s="233"/>
-      <c r="G113" s="233"/>
-      <c r="H113" s="233"/>
-      <c r="I113" s="233"/>
-      <c r="J113" s="233"/>
-      <c r="K113" s="233"/>
-      <c r="L113" s="233"/>
-      <c r="M113" s="233"/>
-      <c r="N113" s="233"/>
-      <c r="O113" s="233"/>
-      <c r="P113" s="233"/>
-      <c r="Q113" s="233"/>
+      <c r="C113" s="152"/>
+      <c r="D113" s="152"/>
+      <c r="E113" s="152"/>
+      <c r="F113" s="152"/>
+      <c r="G113" s="152"/>
+      <c r="H113" s="152"/>
+      <c r="I113" s="152"/>
+      <c r="J113" s="152"/>
+      <c r="K113" s="152"/>
+      <c r="L113" s="152"/>
+      <c r="M113" s="152"/>
+      <c r="N113" s="152"/>
+      <c r="O113" s="152"/>
+      <c r="P113" s="152"/>
+      <c r="Q113" s="152"/>
       <c r="R113" s="52"/>
       <c r="S113" s="53"/>
       <c r="T113" s="73" t="s">
@@ -9330,15 +9330,15 @@
       </c>
       <c r="AB113" s="27"/>
       <c r="AC113" s="60"/>
-      <c r="AE113" s="237"/>
-      <c r="AF113" s="238"/>
-      <c r="AG113" s="238"/>
-      <c r="AH113" s="238"/>
-      <c r="AI113" s="238"/>
-      <c r="AJ113" s="238"/>
-      <c r="AK113" s="239"/>
-      <c r="AL113" s="239"/>
-      <c r="AM113" s="240"/>
+      <c r="AE113" s="143"/>
+      <c r="AF113" s="144"/>
+      <c r="AG113" s="144"/>
+      <c r="AH113" s="144"/>
+      <c r="AI113" s="144"/>
+      <c r="AJ113" s="144"/>
+      <c r="AK113" s="159"/>
+      <c r="AL113" s="159"/>
+      <c r="AM113" s="146"/>
     </row>
     <row r="114" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G114" s="51"/>
@@ -9354,23 +9354,23 @@
         <v>64</v>
       </c>
       <c r="AC114" s="60"/>
-      <c r="AE114" s="237" t="s">
+      <c r="AE114" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="AF114" s="238"/>
-      <c r="AG114" s="238"/>
-      <c r="AH114" s="238"/>
-      <c r="AI114" s="238"/>
-      <c r="AJ114" s="238"/>
-      <c r="AK114" s="245">
+      <c r="AF114" s="144"/>
+      <c r="AG114" s="144"/>
+      <c r="AH114" s="144"/>
+      <c r="AI114" s="144"/>
+      <c r="AJ114" s="144"/>
+      <c r="AK114" s="145">
         <f>COUNTIF(AH13:AI52,"Transferred In")</f>
         <v>0</v>
       </c>
-      <c r="AL114" s="245">
+      <c r="AL114" s="145">
         <f>COUNTIF(AH54:AI93,"Transferred In")</f>
         <v>0</v>
       </c>
-      <c r="AM114" s="240">
+      <c r="AM114" s="146">
         <f t="shared" ref="AM114" si="9">SUM(AK114:AL115)</f>
         <v>0</v>
       </c>
@@ -9393,77 +9393,77 @@
       <c r="AA115" s="70"/>
       <c r="AB115" s="70"/>
       <c r="AC115" s="60"/>
-      <c r="AE115" s="237"/>
-      <c r="AF115" s="238"/>
-      <c r="AG115" s="238"/>
-      <c r="AH115" s="238"/>
-      <c r="AI115" s="238"/>
-      <c r="AJ115" s="238"/>
-      <c r="AK115" s="245"/>
-      <c r="AL115" s="245"/>
-      <c r="AM115" s="240"/>
+      <c r="AE115" s="143"/>
+      <c r="AF115" s="144"/>
+      <c r="AG115" s="144"/>
+      <c r="AH115" s="144"/>
+      <c r="AI115" s="144"/>
+      <c r="AJ115" s="144"/>
+      <c r="AK115" s="145"/>
+      <c r="AL115" s="145"/>
+      <c r="AM115" s="146"/>
     </row>
     <row r="116" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="246"/>
-      <c r="C116" s="246"/>
-      <c r="D116" s="246"/>
-      <c r="E116" s="246"/>
-      <c r="F116" s="246"/>
-      <c r="G116" s="246"/>
-      <c r="H116" s="246"/>
-      <c r="I116" s="246"/>
-      <c r="J116" s="246"/>
+      <c r="B116" s="147"/>
+      <c r="C116" s="147"/>
+      <c r="D116" s="147"/>
+      <c r="E116" s="147"/>
+      <c r="F116" s="147"/>
+      <c r="G116" s="147"/>
+      <c r="H116" s="147"/>
+      <c r="I116" s="147"/>
+      <c r="J116" s="147"/>
       <c r="S116" s="53"/>
       <c r="T116" s="73" t="s">
         <v>67</v>
       </c>
       <c r="AC116" s="60"/>
       <c r="AD116" s="65"/>
-      <c r="AE116" s="237" t="s">
+      <c r="AE116" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="AF116" s="238"/>
-      <c r="AG116" s="238"/>
-      <c r="AH116" s="238"/>
-      <c r="AI116" s="238"/>
-      <c r="AJ116" s="238"/>
-      <c r="AK116" s="245">
+      <c r="AF116" s="144"/>
+      <c r="AG116" s="144"/>
+      <c r="AH116" s="144"/>
+      <c r="AI116" s="144"/>
+      <c r="AJ116" s="144"/>
+      <c r="AK116" s="145">
         <f>COUNTIF(AH13:AI52,"Transferred Out")</f>
         <v>0</v>
       </c>
-      <c r="AL116" s="245">
+      <c r="AL116" s="145">
         <f>COUNTIF(AH54:AI93,"Transferred Out")</f>
         <v>0</v>
       </c>
-      <c r="AM116" s="240">
+      <c r="AM116" s="146">
         <f t="shared" ref="AM116" si="10">SUM(AK116:AL117)</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="246"/>
-      <c r="C117" s="246"/>
-      <c r="D117" s="246"/>
-      <c r="E117" s="246"/>
-      <c r="F117" s="246"/>
-      <c r="G117" s="246"/>
-      <c r="H117" s="246"/>
-      <c r="I117" s="246"/>
-      <c r="J117" s="246"/>
+      <c r="B117" s="147"/>
+      <c r="C117" s="147"/>
+      <c r="D117" s="147"/>
+      <c r="E117" s="147"/>
+      <c r="F117" s="147"/>
+      <c r="G117" s="147"/>
+      <c r="H117" s="147"/>
+      <c r="I117" s="147"/>
+      <c r="J117" s="147"/>
       <c r="S117" s="53"/>
       <c r="T117" s="73" t="s">
         <v>69</v>
       </c>
       <c r="AC117" s="60"/>
-      <c r="AE117" s="247"/>
-      <c r="AF117" s="248"/>
-      <c r="AG117" s="248"/>
-      <c r="AH117" s="248"/>
-      <c r="AI117" s="248"/>
-      <c r="AJ117" s="248"/>
-      <c r="AK117" s="249"/>
-      <c r="AL117" s="249"/>
-      <c r="AM117" s="250"/>
+      <c r="AE117" s="148"/>
+      <c r="AF117" s="149"/>
+      <c r="AG117" s="149"/>
+      <c r="AH117" s="149"/>
+      <c r="AI117" s="149"/>
+      <c r="AJ117" s="149"/>
+      <c r="AK117" s="150"/>
+      <c r="AL117" s="150"/>
+      <c r="AM117" s="151"/>
     </row>
     <row r="118" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="27"/>
@@ -9512,15 +9512,15 @@
         <v>73</v>
       </c>
       <c r="AC120" s="60"/>
-      <c r="AE120" s="241"/>
-      <c r="AF120" s="241"/>
-      <c r="AG120" s="241"/>
-      <c r="AH120" s="241"/>
-      <c r="AI120" s="241"/>
-      <c r="AJ120" s="241"/>
-      <c r="AK120" s="241"/>
-      <c r="AL120" s="241"/>
-      <c r="AM120" s="241"/>
+      <c r="AE120" s="136"/>
+      <c r="AF120" s="136"/>
+      <c r="AG120" s="136"/>
+      <c r="AH120" s="136"/>
+      <c r="AI120" s="136"/>
+      <c r="AJ120" s="136"/>
+      <c r="AK120" s="136"/>
+      <c r="AL120" s="136"/>
+      <c r="AM120" s="136"/>
     </row>
     <row r="121" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="80"/>
@@ -9529,27 +9529,27 @@
       <c r="E121" s="80"/>
       <c r="F121" s="80"/>
       <c r="S121" s="53"/>
-      <c r="T121" s="195" t="s">
+      <c r="T121" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="U121" s="196"/>
-      <c r="V121" s="196"/>
-      <c r="W121" s="196"/>
-      <c r="X121" s="196"/>
-      <c r="Y121" s="196"/>
-      <c r="Z121" s="196"/>
-      <c r="AA121" s="196"/>
-      <c r="AB121" s="196"/>
-      <c r="AC121" s="242"/>
-      <c r="AE121" s="142"/>
-      <c r="AF121" s="142"/>
-      <c r="AG121" s="142"/>
-      <c r="AH121" s="142"/>
-      <c r="AI121" s="142"/>
-      <c r="AJ121" s="142"/>
-      <c r="AK121" s="142"/>
-      <c r="AL121" s="142"/>
-      <c r="AM121" s="142"/>
+      <c r="U121" s="139"/>
+      <c r="V121" s="139"/>
+      <c r="W121" s="139"/>
+      <c r="X121" s="139"/>
+      <c r="Y121" s="139"/>
+      <c r="Z121" s="139"/>
+      <c r="AA121" s="139"/>
+      <c r="AB121" s="139"/>
+      <c r="AC121" s="140"/>
+      <c r="AE121" s="137"/>
+      <c r="AF121" s="137"/>
+      <c r="AG121" s="137"/>
+      <c r="AH121" s="137"/>
+      <c r="AI121" s="137"/>
+      <c r="AJ121" s="137"/>
+      <c r="AK121" s="137"/>
+      <c r="AL121" s="137"/>
+      <c r="AM121" s="137"/>
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B122" s="80"/>
@@ -9558,27 +9558,27 @@
       <c r="E122" s="80"/>
       <c r="F122" s="80"/>
       <c r="S122" s="53"/>
-      <c r="T122" s="195"/>
-      <c r="U122" s="196"/>
-      <c r="V122" s="196"/>
-      <c r="W122" s="196"/>
-      <c r="X122" s="196"/>
-      <c r="Y122" s="196"/>
-      <c r="Z122" s="196"/>
-      <c r="AA122" s="196"/>
-      <c r="AB122" s="196"/>
-      <c r="AC122" s="242"/>
-      <c r="AE122" s="243" t="s">
+      <c r="T122" s="138"/>
+      <c r="U122" s="139"/>
+      <c r="V122" s="139"/>
+      <c r="W122" s="139"/>
+      <c r="X122" s="139"/>
+      <c r="Y122" s="139"/>
+      <c r="Z122" s="139"/>
+      <c r="AA122" s="139"/>
+      <c r="AB122" s="139"/>
+      <c r="AC122" s="140"/>
+      <c r="AE122" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="AF122" s="243"/>
-      <c r="AG122" s="243"/>
-      <c r="AH122" s="243"/>
-      <c r="AI122" s="243"/>
-      <c r="AJ122" s="243"/>
-      <c r="AK122" s="243"/>
-      <c r="AL122" s="243"/>
-      <c r="AM122" s="243"/>
+      <c r="AF122" s="141"/>
+      <c r="AG122" s="141"/>
+      <c r="AH122" s="141"/>
+      <c r="AI122" s="141"/>
+      <c r="AJ122" s="141"/>
+      <c r="AK122" s="141"/>
+      <c r="AL122" s="141"/>
+      <c r="AM122" s="141"/>
     </row>
     <row r="123" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B123" s="80"/>
@@ -9612,8 +9612,8 @@
       <c r="AL124" s="78"/>
     </row>
     <row r="125" spans="1:39" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="244"/>
-      <c r="B125" s="244"/>
+      <c r="A125" s="142"/>
+      <c r="B125" s="142"/>
       <c r="C125" s="82"/>
       <c r="D125" s="82"/>
       <c r="E125" s="82"/>
@@ -9622,19 +9622,19 @@
         <v>79</v>
       </c>
       <c r="AC125" s="81"/>
-      <c r="AE125" s="142"/>
-      <c r="AF125" s="142"/>
-      <c r="AG125" s="142"/>
-      <c r="AH125" s="142"/>
-      <c r="AI125" s="142"/>
-      <c r="AJ125" s="142"/>
-      <c r="AK125" s="142"/>
-      <c r="AL125" s="142"/>
-      <c r="AM125" s="142"/>
+      <c r="AE125" s="137"/>
+      <c r="AF125" s="137"/>
+      <c r="AG125" s="137"/>
+      <c r="AH125" s="137"/>
+      <c r="AI125" s="137"/>
+      <c r="AJ125" s="137"/>
+      <c r="AK125" s="137"/>
+      <c r="AL125" s="137"/>
+      <c r="AM125" s="137"/>
     </row>
     <row r="126" spans="1:39" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="244"/>
-      <c r="B126" s="244"/>
+      <c r="A126" s="142"/>
+      <c r="B126" s="142"/>
       <c r="C126" s="82"/>
       <c r="D126" s="82"/>
       <c r="E126" s="82"/>
@@ -9651,123 +9651,121 @@
       <c r="AA126" s="83"/>
       <c r="AB126" s="83"/>
       <c r="AC126" s="84"/>
-      <c r="AE126" s="243" t="s">
+      <c r="AE126" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="AF126" s="243"/>
-      <c r="AG126" s="243"/>
-      <c r="AH126" s="243"/>
-      <c r="AI126" s="243"/>
-      <c r="AJ126" s="243"/>
-      <c r="AK126" s="243"/>
-      <c r="AL126" s="243"/>
-      <c r="AM126" s="243"/>
+      <c r="AF126" s="141"/>
+      <c r="AG126" s="141"/>
+      <c r="AH126" s="141"/>
+      <c r="AI126" s="141"/>
+      <c r="AJ126" s="141"/>
+      <c r="AK126" s="141"/>
+      <c r="AL126" s="141"/>
+      <c r="AM126" s="141"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7XA9en46ZeIdRgSNPzmJkN1Uqkjuu1sHUhbzDC77oxM/rfsYXk8ZXIHnUpt6K0qce+JcTGX9AiOitAaLkwJa2w==" saltValue="FYgrGgYgsDhxuOawRjQ7uA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Js8x/nabx3J+FMafxXeEX2LzF7QCwgWKuPy8bOEWgTtBlP89eT8k26xTmYnueSMvaSXAspOYKhTaZHLm0kbcrw==" saltValue="sH9ziLCKEyIcmt/TbhFXsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="226">
-    <mergeCell ref="AH78:AI78"/>
-    <mergeCell ref="AJ78:AM78"/>
-    <mergeCell ref="AH79:AI79"/>
-    <mergeCell ref="AJ79:AM79"/>
-    <mergeCell ref="AH80:AI80"/>
-    <mergeCell ref="AJ80:AM80"/>
-    <mergeCell ref="AH81:AI81"/>
-    <mergeCell ref="AJ81:AM81"/>
-    <mergeCell ref="AH82:AI82"/>
-    <mergeCell ref="AJ82:AM82"/>
-    <mergeCell ref="AE120:AM121"/>
-    <mergeCell ref="T121:AC122"/>
-    <mergeCell ref="AE122:AM122"/>
-    <mergeCell ref="A125:B126"/>
-    <mergeCell ref="AE125:AM125"/>
-    <mergeCell ref="AE126:AM126"/>
-    <mergeCell ref="AE114:AJ115"/>
-    <mergeCell ref="AK114:AK115"/>
-    <mergeCell ref="AL114:AL115"/>
-    <mergeCell ref="AM114:AM115"/>
-    <mergeCell ref="B116:J117"/>
-    <mergeCell ref="AE116:AJ117"/>
-    <mergeCell ref="AK116:AK117"/>
-    <mergeCell ref="AL116:AL117"/>
-    <mergeCell ref="AM116:AM117"/>
-    <mergeCell ref="A110:R111"/>
-    <mergeCell ref="AE110:AJ111"/>
-    <mergeCell ref="AK110:AK111"/>
-    <mergeCell ref="AL110:AL111"/>
-    <mergeCell ref="AM110:AM111"/>
-    <mergeCell ref="AE112:AJ113"/>
-    <mergeCell ref="AK112:AK113"/>
-    <mergeCell ref="AL112:AL113"/>
-    <mergeCell ref="AM112:AM113"/>
-    <mergeCell ref="B113:Q113"/>
-    <mergeCell ref="A107:O107"/>
-    <mergeCell ref="AE107:AJ107"/>
-    <mergeCell ref="A108:Q109"/>
-    <mergeCell ref="AE108:AJ109"/>
-    <mergeCell ref="AK108:AK109"/>
-    <mergeCell ref="AL108:AL109"/>
-    <mergeCell ref="AM108:AM109"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="G105:P105"/>
-    <mergeCell ref="Q105:R106"/>
-    <mergeCell ref="AE105:AJ106"/>
-    <mergeCell ref="AK105:AK106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="G103:P103"/>
-    <mergeCell ref="AE103:AJ104"/>
-    <mergeCell ref="AK103:AK104"/>
-    <mergeCell ref="AL103:AL104"/>
-    <mergeCell ref="AM103:AM104"/>
-    <mergeCell ref="G104:P104"/>
-    <mergeCell ref="AL105:AL106"/>
-    <mergeCell ref="AM105:AM106"/>
-    <mergeCell ref="G106:P106"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="G101:P101"/>
-    <mergeCell ref="Q101:R102"/>
-    <mergeCell ref="AE101:AJ102"/>
-    <mergeCell ref="AK101:AK102"/>
-    <mergeCell ref="AL101:AL102"/>
-    <mergeCell ref="AM101:AM102"/>
-    <mergeCell ref="G102:P102"/>
-    <mergeCell ref="AH97:AI98"/>
-    <mergeCell ref="AJ97:AJ98"/>
-    <mergeCell ref="AK97:AM97"/>
-    <mergeCell ref="A98:Q98"/>
-    <mergeCell ref="T98:AB100"/>
-    <mergeCell ref="A99:Q99"/>
-    <mergeCell ref="AE99:AJ100"/>
-    <mergeCell ref="AK99:AK100"/>
-    <mergeCell ref="AL99:AL100"/>
-    <mergeCell ref="AM99:AM100"/>
-    <mergeCell ref="A100:Q100"/>
-    <mergeCell ref="AF97:AG98"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="AH94:AM94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="AH95:AM95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="AH92:AI92"/>
-    <mergeCell ref="AJ92:AM92"/>
-    <mergeCell ref="AH93:AI93"/>
-    <mergeCell ref="AJ93:AM93"/>
-    <mergeCell ref="AH89:AI89"/>
-    <mergeCell ref="AJ89:AM89"/>
-    <mergeCell ref="AH90:AI90"/>
-    <mergeCell ref="AJ90:AM90"/>
-    <mergeCell ref="AH91:AI91"/>
-    <mergeCell ref="AJ91:AM91"/>
-    <mergeCell ref="AH86:AI86"/>
-    <mergeCell ref="AJ86:AM86"/>
-    <mergeCell ref="AH87:AI87"/>
-    <mergeCell ref="AJ87:AM87"/>
-    <mergeCell ref="AH88:AI88"/>
-    <mergeCell ref="AJ88:AM88"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:Z6"/>
+    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AM15"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="G10:AE10"/>
+    <mergeCell ref="AF10:AG11"/>
+    <mergeCell ref="AH10:AM12"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AJ19:AM19"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AM20"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AM21"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AM16"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AJ17:AM17"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AM18"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AJ25:AM25"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AJ26:AM26"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AJ27:AM27"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AJ22:AM22"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AJ23:AM23"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AM24"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AJ31:AM31"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AJ32:AM32"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AJ33:AM33"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AJ28:AM28"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AJ29:AM29"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AM30"/>
+    <mergeCell ref="AH49:AI49"/>
+    <mergeCell ref="AJ49:AM49"/>
+    <mergeCell ref="AH50:AI50"/>
+    <mergeCell ref="AJ50:AM50"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AJ51:AM51"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AJ34:AM34"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AJ35:AM35"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AJ36:AM36"/>
+    <mergeCell ref="AH54:AI54"/>
+    <mergeCell ref="AJ54:AM54"/>
+    <mergeCell ref="AH55:AI55"/>
+    <mergeCell ref="AJ55:AM55"/>
+    <mergeCell ref="AH56:AI56"/>
+    <mergeCell ref="AJ56:AM56"/>
+    <mergeCell ref="AH52:AI52"/>
+    <mergeCell ref="AJ52:AM52"/>
+    <mergeCell ref="AH60:AI60"/>
+    <mergeCell ref="AJ60:AM60"/>
+    <mergeCell ref="AH61:AI61"/>
+    <mergeCell ref="AJ61:AM61"/>
+    <mergeCell ref="AH62:AI62"/>
+    <mergeCell ref="AJ62:AM62"/>
+    <mergeCell ref="AH57:AI57"/>
+    <mergeCell ref="AJ57:AM57"/>
+    <mergeCell ref="AH58:AI58"/>
+    <mergeCell ref="AJ58:AM58"/>
+    <mergeCell ref="AH59:AI59"/>
+    <mergeCell ref="AJ59:AM59"/>
+    <mergeCell ref="AH66:AI66"/>
+    <mergeCell ref="AJ66:AM66"/>
+    <mergeCell ref="AH67:AI67"/>
+    <mergeCell ref="AJ67:AM67"/>
+    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="AJ68:AM68"/>
+    <mergeCell ref="AH63:AI63"/>
+    <mergeCell ref="AJ63:AM63"/>
+    <mergeCell ref="AH64:AI64"/>
+    <mergeCell ref="AJ64:AM64"/>
+    <mergeCell ref="AH65:AI65"/>
+    <mergeCell ref="AJ65:AM65"/>
     <mergeCell ref="AH83:AI83"/>
     <mergeCell ref="AJ83:AM83"/>
     <mergeCell ref="AH84:AI84"/>
@@ -9792,106 +9790,108 @@
     <mergeCell ref="AJ76:AM76"/>
     <mergeCell ref="AH77:AI77"/>
     <mergeCell ref="AJ77:AM77"/>
-    <mergeCell ref="AH66:AI66"/>
-    <mergeCell ref="AJ66:AM66"/>
-    <mergeCell ref="AH67:AI67"/>
-    <mergeCell ref="AJ67:AM67"/>
-    <mergeCell ref="AH68:AI68"/>
-    <mergeCell ref="AJ68:AM68"/>
-    <mergeCell ref="AH63:AI63"/>
-    <mergeCell ref="AJ63:AM63"/>
-    <mergeCell ref="AH64:AI64"/>
-    <mergeCell ref="AJ64:AM64"/>
-    <mergeCell ref="AH65:AI65"/>
-    <mergeCell ref="AJ65:AM65"/>
-    <mergeCell ref="AH61:AI61"/>
-    <mergeCell ref="AJ61:AM61"/>
-    <mergeCell ref="AH62:AI62"/>
-    <mergeCell ref="AJ62:AM62"/>
-    <mergeCell ref="AH57:AI57"/>
-    <mergeCell ref="AJ57:AM57"/>
-    <mergeCell ref="AH58:AI58"/>
-    <mergeCell ref="AJ58:AM58"/>
-    <mergeCell ref="AH59:AI59"/>
-    <mergeCell ref="AJ59:AM59"/>
-    <mergeCell ref="AH54:AI54"/>
-    <mergeCell ref="AJ54:AM54"/>
-    <mergeCell ref="AH55:AI55"/>
-    <mergeCell ref="AJ55:AM55"/>
-    <mergeCell ref="AH56:AI56"/>
-    <mergeCell ref="AJ56:AM56"/>
-    <mergeCell ref="AH52:AI52"/>
-    <mergeCell ref="AJ52:AM52"/>
-    <mergeCell ref="AH60:AI60"/>
-    <mergeCell ref="AJ60:AM60"/>
-    <mergeCell ref="AH49:AI49"/>
-    <mergeCell ref="AJ49:AM49"/>
-    <mergeCell ref="AH50:AI50"/>
-    <mergeCell ref="AJ50:AM50"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AJ51:AM51"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="AJ34:AM34"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AJ35:AM35"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AJ36:AM36"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AJ31:AM31"/>
-    <mergeCell ref="AH32:AI32"/>
-    <mergeCell ref="AJ32:AM32"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AJ33:AM33"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AJ28:AM28"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AJ29:AM29"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="AJ30:AM30"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AJ25:AM25"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AJ26:AM26"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AJ27:AM27"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AJ22:AM22"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AJ23:AM23"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AJ24:AM24"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AJ19:AM19"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AJ20:AM20"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ21:AM21"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AM16"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AJ17:AM17"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AM18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AM15"/>
-    <mergeCell ref="A10:B12"/>
-    <mergeCell ref="G10:AE10"/>
-    <mergeCell ref="AF10:AG11"/>
-    <mergeCell ref="AH10:AM12"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A3:AM3"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="T6:Z6"/>
-    <mergeCell ref="AA6:AF6"/>
+    <mergeCell ref="AH89:AI89"/>
+    <mergeCell ref="AJ89:AM89"/>
+    <mergeCell ref="AH90:AI90"/>
+    <mergeCell ref="AJ90:AM90"/>
+    <mergeCell ref="AH91:AI91"/>
+    <mergeCell ref="AJ91:AM91"/>
+    <mergeCell ref="AH86:AI86"/>
+    <mergeCell ref="AJ86:AM86"/>
+    <mergeCell ref="AH87:AI87"/>
+    <mergeCell ref="AJ87:AM87"/>
+    <mergeCell ref="AH88:AI88"/>
+    <mergeCell ref="AJ88:AM88"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="AH94:AM94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="AH95:AM95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="AH92:AI92"/>
+    <mergeCell ref="AJ92:AM92"/>
+    <mergeCell ref="AH93:AI93"/>
+    <mergeCell ref="AJ93:AM93"/>
+    <mergeCell ref="AH97:AI98"/>
+    <mergeCell ref="AJ97:AJ98"/>
+    <mergeCell ref="AK97:AM97"/>
+    <mergeCell ref="A98:Q98"/>
+    <mergeCell ref="T98:AB100"/>
+    <mergeCell ref="A99:Q99"/>
+    <mergeCell ref="AE99:AJ100"/>
+    <mergeCell ref="AK99:AK100"/>
+    <mergeCell ref="AL99:AL100"/>
+    <mergeCell ref="AM99:AM100"/>
+    <mergeCell ref="A100:Q100"/>
+    <mergeCell ref="AF97:AG98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="G101:P101"/>
+    <mergeCell ref="Q101:R102"/>
+    <mergeCell ref="AE101:AJ102"/>
+    <mergeCell ref="AK101:AK102"/>
+    <mergeCell ref="AL101:AL102"/>
+    <mergeCell ref="AM101:AM102"/>
+    <mergeCell ref="G102:P102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="G103:P103"/>
+    <mergeCell ref="AE103:AJ104"/>
+    <mergeCell ref="AK103:AK104"/>
+    <mergeCell ref="AL103:AL104"/>
+    <mergeCell ref="AM103:AM104"/>
+    <mergeCell ref="G104:P104"/>
+    <mergeCell ref="AL105:AL106"/>
+    <mergeCell ref="AM105:AM106"/>
+    <mergeCell ref="G106:P106"/>
+    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="AE107:AJ107"/>
+    <mergeCell ref="A108:Q109"/>
+    <mergeCell ref="AE108:AJ109"/>
+    <mergeCell ref="AK108:AK109"/>
+    <mergeCell ref="AL108:AL109"/>
+    <mergeCell ref="AM108:AM109"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="G105:P105"/>
+    <mergeCell ref="Q105:R106"/>
+    <mergeCell ref="AE105:AJ106"/>
+    <mergeCell ref="AK105:AK106"/>
+    <mergeCell ref="A110:R111"/>
+    <mergeCell ref="AE110:AJ111"/>
+    <mergeCell ref="AK110:AK111"/>
+    <mergeCell ref="AL110:AL111"/>
+    <mergeCell ref="AM110:AM111"/>
+    <mergeCell ref="AE112:AJ113"/>
+    <mergeCell ref="AK112:AK113"/>
+    <mergeCell ref="AL112:AL113"/>
+    <mergeCell ref="AM112:AM113"/>
+    <mergeCell ref="B113:Q113"/>
+    <mergeCell ref="AE120:AM121"/>
+    <mergeCell ref="T121:AC122"/>
+    <mergeCell ref="AE122:AM122"/>
+    <mergeCell ref="A125:B126"/>
+    <mergeCell ref="AE125:AM125"/>
+    <mergeCell ref="AE126:AM126"/>
+    <mergeCell ref="AE114:AJ115"/>
+    <mergeCell ref="AK114:AK115"/>
+    <mergeCell ref="AL114:AL115"/>
+    <mergeCell ref="AM114:AM115"/>
+    <mergeCell ref="B116:J117"/>
+    <mergeCell ref="AE116:AJ117"/>
+    <mergeCell ref="AK116:AK117"/>
+    <mergeCell ref="AL116:AL117"/>
+    <mergeCell ref="AM116:AM117"/>
+    <mergeCell ref="AH78:AI78"/>
+    <mergeCell ref="AJ78:AM78"/>
+    <mergeCell ref="AH79:AI79"/>
+    <mergeCell ref="AJ79:AM79"/>
+    <mergeCell ref="AH80:AI80"/>
+    <mergeCell ref="AJ80:AM80"/>
+    <mergeCell ref="AH81:AI81"/>
+    <mergeCell ref="AJ81:AM81"/>
+    <mergeCell ref="AH82:AI82"/>
+    <mergeCell ref="AJ82:AM82"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:J6">
     <cfRule type="expression" dxfId="14" priority="14">
@@ -9979,7 +9979,7 @@
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A14:A52 A55:A93 AK112:AL117 AM112:AM117 AK110:AM111 AK106:AM106 AK105:AL105 AM99:AM100 AM103:AM104" unlockedFormula="1"/>
+    <ignoredError sqref="A14:A52 A55:A93 AK112:AL117 AM112:AM117 AK110:AM111 AK106:AM106 AK105:AL105 AM99:AM100 AM104" unlockedFormula="1"/>
     <ignoredError sqref="AF53:AG53" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
